--- a/SimulationStudyData/Model5/SimCase29_Yobs_SimRun5.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Yobs_SimRun5.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.247378546803</v>
+        <v>9.57824410291138</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5547851850708</v>
+        <v>-5.45138330145761</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8705813601107</v>
+        <v>-6.12786461355357</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9769547147929</v>
+        <v>-6.61869925318556</v>
       </c>
       <c r="E2" t="n">
-        <v>13.5827190571231</v>
+        <v>-7.00425223920777</v>
       </c>
       <c r="F2" t="n">
-        <v>14.3705093857574</v>
+        <v>-7.33328689158098</v>
       </c>
       <c r="G2" t="n">
-        <v>16.3684246053637</v>
+        <v>-7.45364875186807</v>
       </c>
       <c r="H2" t="n">
-        <v>16.2277897874392</v>
+        <v>-8.42923241687384</v>
       </c>
       <c r="I2" t="n">
-        <v>18.1429612774618</v>
+        <v>-9.14747982461152</v>
       </c>
       <c r="J2" t="n">
-        <v>19.2969636740404</v>
+        <v>-9.6942399008467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.8220238925469</v>
+        <v>-5.41321171946138</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.59326805505374</v>
+        <v>-5.60244803291678</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.59171274003826</v>
+        <v>-5.82527205790673</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.33360476503182</v>
+        <v>-6.56158784261641</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.89858410749656</v>
+        <v>-6.78752338948245</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.33623438534508</v>
+        <v>-7.83112354312716</v>
       </c>
       <c r="G3" t="n">
-        <v>15.6169847880597</v>
+        <v>-7.8462572416318</v>
       </c>
       <c r="H3" t="n">
-        <v>16.1345375732676</v>
+        <v>-8.2131102505245</v>
       </c>
       <c r="I3" t="n">
-        <v>19.387083729177</v>
+        <v>-8.78163359085272</v>
       </c>
       <c r="J3" t="n">
-        <v>19.3283771742273</v>
+        <v>-9.62504101093793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.98709892171256</v>
+        <v>9.28303579559276</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.9906164235882</v>
+        <v>10.9010492047204</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7066634755254</v>
+        <v>11.7075290260643</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9849699386203</v>
+        <v>13.4880560408347</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1465555560256</v>
+        <v>14.7491226747723</v>
       </c>
       <c r="F4" t="n">
-        <v>15.2627334788227</v>
+        <v>-7.71020684349516</v>
       </c>
       <c r="G4" t="n">
-        <v>15.1559768673392</v>
+        <v>-8.02188653816181</v>
       </c>
       <c r="H4" t="n">
-        <v>15.6958179918686</v>
+        <v>-8.3168093104731</v>
       </c>
       <c r="I4" t="n">
-        <v>18.1307448043871</v>
+        <v>-9.43572402491654</v>
       </c>
       <c r="J4" t="n">
-        <v>18.4845452650088</v>
+        <v>-9.47813136332009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.72324020194888</v>
+        <v>-5.39612873454516</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5577182896057</v>
+        <v>-5.44284628983352</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8996917290584</v>
+        <v>-6.10074162674556</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2052740827916</v>
+        <v>-6.69625536335246</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8178942620123</v>
+        <v>-7.09502069543121</v>
       </c>
       <c r="F5" t="n">
-        <v>14.8250236653758</v>
+        <v>-7.36307684319933</v>
       </c>
       <c r="G5" t="n">
-        <v>16.27792908547</v>
+        <v>-7.75119419469303</v>
       </c>
       <c r="H5" t="n">
-        <v>16.9864177464726</v>
+        <v>-8.38104800969905</v>
       </c>
       <c r="I5" t="n">
-        <v>18.4651228563031</v>
+        <v>-8.96570848972966</v>
       </c>
       <c r="J5" t="n">
-        <v>19.4677319499983</v>
+        <v>-9.52798343127839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.9463379990904</v>
+        <v>10.6417717383553</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7249447219007</v>
+        <v>10.9899061606467</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6674682356608</v>
+        <v>11.251798282249</v>
       </c>
       <c r="D6" t="n">
-        <v>13.1767308537884</v>
+        <v>13.1891156066167</v>
       </c>
       <c r="E6" t="n">
-        <v>14.8200281970502</v>
+        <v>15.0857558565282</v>
       </c>
       <c r="F6" t="n">
-        <v>15.2006687057145</v>
+        <v>15.3447943339357</v>
       </c>
       <c r="G6" t="n">
-        <v>16.569595050556</v>
+        <v>15.8841964583705</v>
       </c>
       <c r="H6" t="n">
-        <v>18.1547977783691</v>
+        <v>14.9262020455824</v>
       </c>
       <c r="I6" t="n">
-        <v>18.6601982896482</v>
+        <v>17.6042883053452</v>
       </c>
       <c r="J6" t="n">
-        <v>19.7775974065762</v>
+        <v>18.9244699509636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.34540629320302</v>
+        <v>11.7794295262943</v>
       </c>
       <c r="B7" t="n">
-        <v>11.6671640160296</v>
+        <v>10.205170354313</v>
       </c>
       <c r="C7" t="n">
-        <v>11.7941927098164</v>
+        <v>13.5000769143122</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2535555544322</v>
+        <v>12.1438771072386</v>
       </c>
       <c r="E7" t="n">
-        <v>15.2382665087263</v>
+        <v>12.971973397898</v>
       </c>
       <c r="F7" t="n">
-        <v>16.1152350960405</v>
+        <v>-7.32684821705364</v>
       </c>
       <c r="G7" t="n">
-        <v>15.3052763125451</v>
+        <v>-7.88992065077972</v>
       </c>
       <c r="H7" t="n">
-        <v>16.4742043407096</v>
+        <v>-8.63015053207428</v>
       </c>
       <c r="I7" t="n">
-        <v>17.4699634582019</v>
+        <v>-8.69752147412822</v>
       </c>
       <c r="J7" t="n">
-        <v>17.0060317371995</v>
+        <v>-9.37852731131383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.514237810554</v>
+        <v>10.8122771657538</v>
       </c>
       <c r="B8" t="n">
-        <v>10.2493023753652</v>
+        <v>9.82913079382914</v>
       </c>
       <c r="C8" t="n">
-        <v>11.5478719053276</v>
+        <v>12.050709480334</v>
       </c>
       <c r="D8" t="n">
-        <v>12.8959448856354</v>
+        <v>-6.40876332004277</v>
       </c>
       <c r="E8" t="n">
-        <v>14.6469116160751</v>
+        <v>-7.02843756876229</v>
       </c>
       <c r="F8" t="n">
-        <v>13.7268879337282</v>
+        <v>-7.87076077345517</v>
       </c>
       <c r="G8" t="n">
-        <v>16.8203972542709</v>
+        <v>-7.6908181969406</v>
       </c>
       <c r="H8" t="n">
-        <v>17.0994064026715</v>
+        <v>-8.45760719181771</v>
       </c>
       <c r="I8" t="n">
-        <v>17.6001164577448</v>
+        <v>-8.8935832020069</v>
       </c>
       <c r="J8" t="n">
-        <v>19.2145217435545</v>
+        <v>-9.44981474414079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.3363131521211</v>
+        <v>9.86499117900916</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6547289071027</v>
+        <v>11.3600629540113</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5105880410313</v>
+        <v>11.6289195302686</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9922452243452</v>
+        <v>12.6347517452194</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0292554003878</v>
+        <v>15.2268954786989</v>
       </c>
       <c r="F9" t="n">
-        <v>15.3333511508925</v>
+        <v>14.8842054720919</v>
       </c>
       <c r="G9" t="n">
-        <v>15.343890473286</v>
+        <v>14.964600419441</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.15066080497247</v>
+        <v>16.8815039592925</v>
       </c>
       <c r="I9" t="n">
-        <v>-9.12865631038072</v>
+        <v>18.6957085135803</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.56572595788041</v>
+        <v>18.6851371077289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.5360306568284</v>
+        <v>-5.04060391690879</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1720963503483</v>
+        <v>-5.42091726112986</v>
       </c>
       <c r="C10" t="n">
-        <v>11.6631377146134</v>
+        <v>-6.32676993077684</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2474721024534</v>
+        <v>-6.5485218978932</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0495421803393</v>
+        <v>-7.23939540791651</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7655084494107</v>
+        <v>-7.28059854041791</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.89054615535241</v>
+        <v>-8.58024724774772</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.42286953724123</v>
+        <v>-8.69990632517835</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.26491576053585</v>
+        <v>-9.33012497153944</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.75669019869798</v>
+        <v>-9.56563240132039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.4691503368174</v>
+        <v>11.1199163881399</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0244852170353</v>
+        <v>10.5463570062889</v>
       </c>
       <c r="C11" t="n">
-        <v>11.4371519163384</v>
+        <v>12.7380794293605</v>
       </c>
       <c r="D11" t="n">
-        <v>13.1495505865426</v>
+        <v>12.9338637164859</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.0350870501459</v>
+        <v>14.3795070543138</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.7071896221223</v>
+        <v>14.7212789195412</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.08851329171066</v>
+        <v>16.1836393196894</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.42652634614317</v>
+        <v>-8.59239010490267</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.81739471669173</v>
+        <v>-9.41790103901836</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.91363279996179</v>
+        <v>-9.7145048356759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-5.30380853014886</v>
+        <v>-4.95592910607049</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.57232582524964</v>
+        <v>-5.36121174824902</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.19159677625915</v>
+        <v>-6.21321671999141</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.74283725857162</v>
+        <v>-6.4064769556987</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.10616526064352</v>
+        <v>-6.72850839966877</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.22247732541991</v>
+        <v>-7.23912212886914</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.9413885043501</v>
+        <v>-7.9848858209687</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.46835072050068</v>
+        <v>-8.35563828860888</v>
       </c>
       <c r="I12" t="n">
-        <v>-9.10345865619566</v>
+        <v>-9.39093691032799</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.41271972878486</v>
+        <v>-9.78764680188435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.886415510134</v>
+        <v>-5.15917212085986</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4613913878966</v>
+        <v>-5.46412813285447</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5351968307052</v>
+        <v>-6.05136862167513</v>
       </c>
       <c r="D13" t="n">
-        <v>12.6898104931843</v>
+        <v>-6.6412116557082</v>
       </c>
       <c r="E13" t="n">
-        <v>13.9365772687018</v>
+        <v>-6.9315519597127</v>
       </c>
       <c r="F13" t="n">
-        <v>15.2520147108333</v>
+        <v>-7.34395878855142</v>
       </c>
       <c r="G13" t="n">
-        <v>16.2744733668141</v>
+        <v>-7.82894842475487</v>
       </c>
       <c r="H13" t="n">
-        <v>15.7761960711254</v>
+        <v>-8.20451224538497</v>
       </c>
       <c r="I13" t="n">
-        <v>16.9738861797261</v>
+        <v>-9.18249575194398</v>
       </c>
       <c r="J13" t="n">
-        <v>18.763957294069</v>
+        <v>-9.71150127202307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.47137351561012</v>
+        <v>10.3967996714971</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5316435156087</v>
+        <v>11.0748192548717</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1187409530985</v>
+        <v>11.0348183198214</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3925766737402</v>
+        <v>11.973289432271</v>
       </c>
       <c r="E14" t="n">
-        <v>14.8921795396307</v>
+        <v>14.2901367291906</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0667482415649</v>
+        <v>14.5000886999162</v>
       </c>
       <c r="G14" t="n">
-        <v>17.3647491006229</v>
+        <v>16.010285550576</v>
       </c>
       <c r="H14" t="n">
-        <v>18.2160147745836</v>
+        <v>18.4557765096382</v>
       </c>
       <c r="I14" t="n">
-        <v>17.9432187460615</v>
+        <v>19.1297471052299</v>
       </c>
       <c r="J14" t="n">
-        <v>20.3243155851502</v>
+        <v>18.2896008726015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.501531731888</v>
+        <v>-5.3721660867215</v>
       </c>
       <c r="B15" t="n">
-        <v>10.299405908801</v>
+        <v>-5.79087146491999</v>
       </c>
       <c r="C15" t="n">
-        <v>13.4378896599977</v>
+        <v>-6.30175572539794</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9502607743829</v>
+        <v>-6.53915646463715</v>
       </c>
       <c r="E15" t="n">
-        <v>14.0538845843605</v>
+        <v>-7.12771963878348</v>
       </c>
       <c r="F15" t="n">
-        <v>16.0602482327218</v>
+        <v>-7.68202548831155</v>
       </c>
       <c r="G15" t="n">
-        <v>16.8362225583209</v>
+        <v>-7.58427636528361</v>
       </c>
       <c r="H15" t="n">
-        <v>17.5045278805598</v>
+        <v>-8.75922750862014</v>
       </c>
       <c r="I15" t="n">
-        <v>16.6063688902224</v>
+        <v>-9.18774519596819</v>
       </c>
       <c r="J15" t="n">
-        <v>19.2553893302472</v>
+        <v>-9.37139619155383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.42134914062475</v>
+        <v>8.76550186231379</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6343108442342</v>
+        <v>11.0965041920984</v>
       </c>
       <c r="C16" t="n">
-        <v>10.458896525426</v>
+        <v>12.4687854632181</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3651472558257</v>
+        <v>13.8282838903383</v>
       </c>
       <c r="E16" t="n">
-        <v>14.2416469152105</v>
+        <v>13.7936608208344</v>
       </c>
       <c r="F16" t="n">
-        <v>15.9773218233322</v>
+        <v>15.761766945716</v>
       </c>
       <c r="G16" t="n">
-        <v>15.3791164664765</v>
+        <v>17.1904172175283</v>
       </c>
       <c r="H16" t="n">
-        <v>17.5490513954883</v>
+        <v>17.2921528847406</v>
       </c>
       <c r="I16" t="n">
-        <v>18.7846749534245</v>
+        <v>19.5834870872368</v>
       </c>
       <c r="J16" t="n">
-        <v>19.6540147469374</v>
+        <v>18.8953547259639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.1272705070132</v>
+        <v>-4.87466647889465</v>
       </c>
       <c r="B17" t="n">
-        <v>12.3375662317323</v>
+        <v>-5.70788517202764</v>
       </c>
       <c r="C17" t="n">
-        <v>10.7717878689036</v>
+        <v>-5.87193299875754</v>
       </c>
       <c r="D17" t="n">
-        <v>12.5046354590274</v>
+        <v>-6.04910415820178</v>
       </c>
       <c r="E17" t="n">
-        <v>13.5497290272492</v>
+        <v>-6.72251276355635</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2598430111779</v>
+        <v>-7.0764998085879</v>
       </c>
       <c r="G17" t="n">
-        <v>16.4149239659843</v>
+        <v>-8.18191675869463</v>
       </c>
       <c r="H17" t="n">
-        <v>16.4530520828231</v>
+        <v>-8.33225358800691</v>
       </c>
       <c r="I17" t="n">
-        <v>16.44910678693</v>
+        <v>-9.30114443209117</v>
       </c>
       <c r="J17" t="n">
-        <v>19.0030481534575</v>
+        <v>-9.26838126009359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.40813323048746</v>
+        <v>10.194078192024</v>
       </c>
       <c r="B18" t="n">
-        <v>11.547922906245</v>
+        <v>11.0545554478792</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5267059354472</v>
+        <v>13.2094761297864</v>
       </c>
       <c r="D18" t="n">
-        <v>14.6697155700349</v>
+        <v>12.8807141641481</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5764266939273</v>
+        <v>13.6329346851272</v>
       </c>
       <c r="F18" t="n">
-        <v>15.2997404826946</v>
+        <v>16.6973544220275</v>
       </c>
       <c r="G18" t="n">
-        <v>16.8962371669962</v>
+        <v>16.6815287561992</v>
       </c>
       <c r="H18" t="n">
-        <v>16.4724100664399</v>
+        <v>17.0064659798892</v>
       </c>
       <c r="I18" t="n">
-        <v>18.1568008704824</v>
+        <v>16.9773119776596</v>
       </c>
       <c r="J18" t="n">
-        <v>18.9592703066426</v>
+        <v>20.1807940787333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.90998763590966</v>
+        <v>10.757619378842</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.66846994602952</v>
+        <v>10.0464377290648</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.78022840014463</v>
+        <v>11.4686366692525</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.26670688715712</v>
+        <v>13.2371081749047</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.18130387904522</v>
+        <v>14.5559917769628</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.27204428122423</v>
+        <v>13.935702515856</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.0058197690972</v>
+        <v>-8.07457271853628</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.57194437769136</v>
+        <v>-8.39313911795299</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.18257354748075</v>
+        <v>-8.58889060031777</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.40222854269628</v>
+        <v>-9.51937087166133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.01231219392231</v>
+        <v>8.96237235457667</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.20115952043622</v>
+        <v>12.8789472481209</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.18655624380891</v>
+        <v>12.2538420278289</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.52180479123812</v>
+        <v>12.6504489802626</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.08322044934478</v>
+        <v>13.3120489367502</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.59455699999522</v>
+        <v>14.2781227636344</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.7640400862629</v>
+        <v>16.5971934750196</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.51982820703895</v>
+        <v>17.1878453535829</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.01988686920801</v>
+        <v>18.34908541424</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.54877053234579</v>
+        <v>20.1999704593143</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.47960500797767</v>
+        <v>10.5773054950614</v>
       </c>
       <c r="B21" t="n">
-        <v>11.2125356638713</v>
+        <v>10.491665092569</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1603736964254</v>
+        <v>13.7190833469942</v>
       </c>
       <c r="D21" t="n">
-        <v>12.1573295112873</v>
+        <v>12.6630053813005</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.04591314754272</v>
+        <v>13.4403262160153</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.11728563907641</v>
+        <v>15.3480365004356</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.32986841861962</v>
+        <v>17.7204082200175</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.48413156126715</v>
+        <v>17.3467262794368</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.76935475270307</v>
+        <v>17.5968779752766</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.65442447973118</v>
+        <v>20.3524469870836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.4689250422717</v>
+        <v>10.5853872500183</v>
       </c>
       <c r="B22" t="n">
-        <v>11.0472183276519</v>
+        <v>11.1146797759559</v>
       </c>
       <c r="C22" t="n">
-        <v>13.0690304472992</v>
+        <v>12.1836751481822</v>
       </c>
       <c r="D22" t="n">
-        <v>13.4256386899549</v>
+        <v>11.5692058124479</v>
       </c>
       <c r="E22" t="n">
-        <v>12.9873746180888</v>
+        <v>14.0488451835149</v>
       </c>
       <c r="F22" t="n">
-        <v>14.1682641957798</v>
+        <v>15.8398528305065</v>
       </c>
       <c r="G22" t="n">
-        <v>15.5103818221963</v>
+        <v>15.330683764247</v>
       </c>
       <c r="H22" t="n">
-        <v>16.9875929624536</v>
+        <v>16.0596984075975</v>
       </c>
       <c r="I22" t="n">
-        <v>18.3705551873619</v>
+        <v>18.1241099051678</v>
       </c>
       <c r="J22" t="n">
-        <v>19.3413330445257</v>
+        <v>19.4783958039876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.1244281667751</v>
+        <v>10.9248549190675</v>
       </c>
       <c r="B23" t="n">
-        <v>11.4287824949986</v>
+        <v>11.2710804838357</v>
       </c>
       <c r="C23" t="n">
-        <v>11.6051873228032</v>
+        <v>13.2029100477879</v>
       </c>
       <c r="D23" t="n">
-        <v>12.5757505623096</v>
+        <v>10.9714623432649</v>
       </c>
       <c r="E23" t="n">
-        <v>12.6532096185278</v>
+        <v>13.4290497315653</v>
       </c>
       <c r="F23" t="n">
-        <v>14.3067220879223</v>
+        <v>15.5093906407735</v>
       </c>
       <c r="G23" t="n">
-        <v>15.7202133307102</v>
+        <v>16.7032017026349</v>
       </c>
       <c r="H23" t="n">
-        <v>15.1903743481283</v>
+        <v>16.6385144535133</v>
       </c>
       <c r="I23" t="n">
-        <v>18.5284780797037</v>
+        <v>18.8259096643855</v>
       </c>
       <c r="J23" t="n">
-        <v>20.4379679796543</v>
+        <v>20.0154856112179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-5.04842388062846</v>
+        <v>8.27587123699981</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.57186120061644</v>
+        <v>11.1054348281845</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.53052394914529</v>
+        <v>10.6780073845702</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.42588589865853</v>
+        <v>13.4262554613059</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.95450424070349</v>
+        <v>14.7008222612782</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.62534151219285</v>
+        <v>15.2816460292618</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.94795036326272</v>
+        <v>16.8358504828191</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.32973349930662</v>
+        <v>17.0931005174408</v>
       </c>
       <c r="I24" t="n">
-        <v>-9.34084210868224</v>
+        <v>18.4261538998244</v>
       </c>
       <c r="J24" t="n">
-        <v>-9.8245633141915</v>
+        <v>20.7768550513791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.89422216447535</v>
+        <v>-4.79395595038933</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.65532500602237</v>
+        <v>-5.85839500748218</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.01973770987833</v>
+        <v>-6.23907066678683</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.56693194773029</v>
+        <v>-6.349347451315</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.19425885443493</v>
+        <v>-7.14066480308405</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.64571425364898</v>
+        <v>-7.76497035745431</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.70128670597505</v>
+        <v>-7.84411097958459</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.90464699504106</v>
+        <v>-8.26517018025117</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.08998995260252</v>
+        <v>-8.81571242263012</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.38189390747502</v>
+        <v>-9.30578545239182</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-5.06375943148547</v>
+        <v>-4.95295344234423</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.4223162978684</v>
+        <v>-5.42245920902834</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.73458343844732</v>
+        <v>-5.88127939272124</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.4920585719461</v>
+        <v>-6.42264432436946</v>
       </c>
       <c r="E26" t="n">
-        <v>-7.17484715355866</v>
+        <v>-6.91909342641153</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.49573110177682</v>
+        <v>-7.35566814741344</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.60027052092313</v>
+        <v>-8.33710037666466</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.53335483593621</v>
+        <v>-8.88669969555701</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.83362095123717</v>
+        <v>-9.25267499578761</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.0452399345435</v>
+        <v>-9.39206269166303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.4931740854521</v>
+        <v>11.4917823875713</v>
       </c>
       <c r="B27" t="n">
-        <v>11.4519676076072</v>
+        <v>-5.41959010916583</v>
       </c>
       <c r="C27" t="n">
-        <v>11.7709127410497</v>
+        <v>-5.86336923756046</v>
       </c>
       <c r="D27" t="n">
-        <v>14.8485680511839</v>
+        <v>-6.55915833445463</v>
       </c>
       <c r="E27" t="n">
-        <v>12.9687130092325</v>
+        <v>-7.04055845773141</v>
       </c>
       <c r="F27" t="n">
-        <v>14.7618081380901</v>
+        <v>-7.00293871712885</v>
       </c>
       <c r="G27" t="n">
-        <v>17.1763022031898</v>
+        <v>-7.99152922767432</v>
       </c>
       <c r="H27" t="n">
-        <v>16.3549069768576</v>
+        <v>-8.39994270137769</v>
       </c>
       <c r="I27" t="n">
-        <v>19.151151996146</v>
+        <v>-9.01231074398159</v>
       </c>
       <c r="J27" t="n">
-        <v>19.0918342266079</v>
+        <v>-9.61590768318145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.0869997504239</v>
+        <v>9.65832674778128</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.00034892918806</v>
+        <v>11.3090817895665</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.63900713198893</v>
+        <v>12.6301970818606</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.46826971473679</v>
+        <v>14.1785813508564</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.84416783880245</v>
+        <v>-7.09708785830065</v>
       </c>
       <c r="F28" t="n">
-        <v>-8.31670268984918</v>
+        <v>-7.57146879130207</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.66198552519107</v>
+        <v>-8.10133177186622</v>
       </c>
       <c r="H28" t="n">
-        <v>-8.63999038531566</v>
+        <v>-8.13369996330904</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.93072951729313</v>
+        <v>-9.57789144904254</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.63838058167866</v>
+        <v>-9.71670496600464</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-4.64527783095433</v>
+        <v>-5.07473795150331</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.65730976204237</v>
+        <v>-5.24964184852416</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.89491322802723</v>
+        <v>-6.03489546061524</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.10915037141101</v>
+        <v>-6.44620684847829</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.71854883055616</v>
+        <v>-6.59643833521332</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.07464395119072</v>
+        <v>-7.72123497726622</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.78344394482834</v>
+        <v>-8.37811824714662</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.33849652496272</v>
+        <v>-8.60286033789183</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.01538971426407</v>
+        <v>-8.85768488090687</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.38252156924678</v>
+        <v>-9.19695907627455</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.5527580261007</v>
+        <v>-4.44165701716401</v>
       </c>
       <c r="B30" t="n">
-        <v>10.2918361747342</v>
+        <v>-5.3519613263151</v>
       </c>
       <c r="C30" t="n">
-        <v>12.1676100885948</v>
+        <v>-5.74222171265806</v>
       </c>
       <c r="D30" t="n">
-        <v>13.2324217682744</v>
+        <v>-6.57757198782967</v>
       </c>
       <c r="E30" t="n">
-        <v>13.2388801673536</v>
+        <v>-7.55726937616691</v>
       </c>
       <c r="F30" t="n">
-        <v>16.2709267167458</v>
+        <v>-7.44749608716994</v>
       </c>
       <c r="G30" t="n">
-        <v>14.5658281228408</v>
+        <v>-7.96289161052632</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.63270681970508</v>
+        <v>-8.24305345730901</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.0465105550058</v>
+        <v>-8.7942939993343</v>
       </c>
       <c r="J30" t="n">
-        <v>-8.9366813216382</v>
+        <v>-8.97113633550271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.0246695572846</v>
+        <v>10.1368787945566</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.65764892319626</v>
+        <v>10.2848139466721</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.7343050488283</v>
+        <v>11.7141500182173</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.53842122847721</v>
+        <v>12.2072835375322</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.99092782675741</v>
+        <v>-7.07211993028806</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.26226580530837</v>
+        <v>-7.44571046061854</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.23045422034086</v>
+        <v>-7.99510767696732</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.41524243188348</v>
+        <v>-8.13808680217221</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.9831791543299</v>
+        <v>-8.94722824963704</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.50240114941431</v>
+        <v>-9.4032421161121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-5.27621236323944</v>
+        <v>11.1713195450517</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.8303308923124</v>
+        <v>9.55188149197668</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.38126392785276</v>
+        <v>11.3408306418592</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.49311061621349</v>
+        <v>12.8882235673776</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.76971109309215</v>
+        <v>13.8743101106626</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.60112200688662</v>
+        <v>14.7832166702384</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.29513172161666</v>
+        <v>-8.37268126000537</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.18055052246497</v>
+        <v>-8.7623407608039</v>
       </c>
       <c r="I32" t="n">
-        <v>-8.97243190784685</v>
+        <v>-9.02333360741267</v>
       </c>
       <c r="J32" t="n">
-        <v>-9.89378255926186</v>
+        <v>-9.40503398202108</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.0421036108338</v>
+        <v>10.6963075156654</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2878182467267</v>
+        <v>11.0944908327959</v>
       </c>
       <c r="C33" t="n">
-        <v>12.2766366713035</v>
+        <v>10.4445333150239</v>
       </c>
       <c r="D33" t="n">
-        <v>13.5309768899995</v>
+        <v>11.7274395913692</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5102188915284</v>
+        <v>13.7912459692554</v>
       </c>
       <c r="F33" t="n">
-        <v>14.6354376135852</v>
+        <v>14.8012910110505</v>
       </c>
       <c r="G33" t="n">
-        <v>16.2520122259967</v>
+        <v>15.8862896082202</v>
       </c>
       <c r="H33" t="n">
-        <v>16.9415899134052</v>
+        <v>-8.38323937752045</v>
       </c>
       <c r="I33" t="n">
-        <v>18.2788910371784</v>
+        <v>-8.97451486073233</v>
       </c>
       <c r="J33" t="n">
-        <v>19.6236208055653</v>
+        <v>-9.60568562878115</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.2548278807942</v>
+        <v>10.0195039655185</v>
       </c>
       <c r="B34" t="n">
-        <v>10.6168296447736</v>
+        <v>10.0598205078701</v>
       </c>
       <c r="C34" t="n">
-        <v>11.657682519171</v>
+        <v>10.9977899529085</v>
       </c>
       <c r="D34" t="n">
-        <v>12.5870495999674</v>
+        <v>11.4560672008818</v>
       </c>
       <c r="E34" t="n">
-        <v>13.4489879675352</v>
+        <v>14.3109589225971</v>
       </c>
       <c r="F34" t="n">
-        <v>15.2015358054818</v>
+        <v>16.1829954465191</v>
       </c>
       <c r="G34" t="n">
-        <v>15.498867587573</v>
+        <v>15.338891854671</v>
       </c>
       <c r="H34" t="n">
-        <v>16.507735687473</v>
+        <v>18.489420366912</v>
       </c>
       <c r="I34" t="n">
-        <v>17.2423739021135</v>
+        <v>18.5707771949357</v>
       </c>
       <c r="J34" t="n">
-        <v>18.2654838174162</v>
+        <v>20.166519993914</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.74241981871319</v>
+        <v>10.2281671864904</v>
       </c>
       <c r="B35" t="n">
-        <v>10.5014652222265</v>
+        <v>11.5681409571385</v>
       </c>
       <c r="C35" t="n">
-        <v>13.0417648184438</v>
+        <v>11.7261270434778</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1269301957908</v>
+        <v>12.0495259117242</v>
       </c>
       <c r="E35" t="n">
-        <v>15.0614163467899</v>
+        <v>14.2882595154022</v>
       </c>
       <c r="F35" t="n">
-        <v>12.6087563244403</v>
+        <v>13.4734512342366</v>
       </c>
       <c r="G35" t="n">
-        <v>15.4063296515089</v>
+        <v>15.8532584101394</v>
       </c>
       <c r="H35" t="n">
-        <v>17.688624494603</v>
+        <v>18.5584028216305</v>
       </c>
       <c r="I35" t="n">
-        <v>18.3082199573744</v>
+        <v>18.4284437461264</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.57463884352258</v>
+        <v>18.275351087898</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.2382091560395</v>
+        <v>8.81342616926177</v>
       </c>
       <c r="B36" t="n">
-        <v>11.1545437033988</v>
+        <v>10.8818664113436</v>
       </c>
       <c r="C36" t="n">
-        <v>10.8258574472431</v>
+        <v>12.3049427804899</v>
       </c>
       <c r="D36" t="n">
-        <v>12.9372202700016</v>
+        <v>12.9174920898456</v>
       </c>
       <c r="E36" t="n">
-        <v>14.1185529021782</v>
+        <v>14.3054731976903</v>
       </c>
       <c r="F36" t="n">
-        <v>15.6093348374405</v>
+        <v>15.3114144516139</v>
       </c>
       <c r="G36" t="n">
-        <v>16.5495343261151</v>
+        <v>16.2156104145945</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.76376320963297</v>
+        <v>17.4569324129934</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.02391008637446</v>
+        <v>19.0007350900458</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.21216633954375</v>
+        <v>19.5755566088345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.5290928834585</v>
+        <v>9.56340487871903</v>
       </c>
       <c r="B37" t="n">
-        <v>11.6372489881278</v>
+        <v>10.7493997196684</v>
       </c>
       <c r="C37" t="n">
-        <v>11.4062854314928</v>
+        <v>12.1742958556436</v>
       </c>
       <c r="D37" t="n">
-        <v>14.2844657513412</v>
+        <v>11.9505758293402</v>
       </c>
       <c r="E37" t="n">
-        <v>14.7856151766154</v>
+        <v>14.191263433605</v>
       </c>
       <c r="F37" t="n">
-        <v>13.3932362171634</v>
+        <v>14.1967447835677</v>
       </c>
       <c r="G37" t="n">
-        <v>15.9101825822197</v>
+        <v>15.6776328719991</v>
       </c>
       <c r="H37" t="n">
-        <v>16.8794597049455</v>
+        <v>17.2549359150581</v>
       </c>
       <c r="I37" t="n">
-        <v>16.0888485568554</v>
+        <v>18.0077480363195</v>
       </c>
       <c r="J37" t="n">
-        <v>20.3981610284864</v>
+        <v>17.4783823552272</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.4235390925427</v>
+        <v>-5.02997278253905</v>
       </c>
       <c r="B38" t="n">
-        <v>10.5899238234717</v>
+        <v>-5.23433916241508</v>
       </c>
       <c r="C38" t="n">
-        <v>13.3594833627952</v>
+        <v>-5.78196545788139</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7656795621073</v>
+        <v>-6.36237980147949</v>
       </c>
       <c r="E38" t="n">
-        <v>14.3613284007466</v>
+        <v>-6.71044695505981</v>
       </c>
       <c r="F38" t="n">
-        <v>14.6917907648846</v>
+        <v>-7.7041838687562</v>
       </c>
       <c r="G38" t="n">
-        <v>16.0793409344656</v>
+        <v>-8.3338041703478</v>
       </c>
       <c r="H38" t="n">
-        <v>16.3667670963631</v>
+        <v>-8.34570106550266</v>
       </c>
       <c r="I38" t="n">
-        <v>17.25921246594</v>
+        <v>-9.19746841545993</v>
       </c>
       <c r="J38" t="n">
-        <v>17.514481142731</v>
+        <v>-9.92922419385247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-5.26711977541089</v>
+        <v>-4.85029893605341</v>
       </c>
       <c r="B39" t="n">
-        <v>-5.57378503777237</v>
+        <v>-5.65678404073551</v>
       </c>
       <c r="C39" t="n">
-        <v>-6.3340654850864</v>
+        <v>-6.21320238057662</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.00495425583949</v>
+        <v>-6.70078229688285</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.84189398358814</v>
+        <v>-7.1134124165969</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.32746180147816</v>
+        <v>-6.78800189308697</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.1603525775824</v>
+        <v>-7.96371169760796</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.31884799583425</v>
+        <v>-8.3136980782978</v>
       </c>
       <c r="I39" t="n">
-        <v>-9.40631612815087</v>
+        <v>-8.85260622180061</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.47331256660901</v>
+        <v>-9.68709891132786</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.79095864373481</v>
+        <v>10.5026285675329</v>
       </c>
       <c r="B40" t="n">
-        <v>10.7884386642023</v>
+        <v>9.76596905501887</v>
       </c>
       <c r="C40" t="n">
-        <v>11.8568909103748</v>
+        <v>12.968392256509</v>
       </c>
       <c r="D40" t="n">
-        <v>12.1238077814797</v>
+        <v>14.4749895076275</v>
       </c>
       <c r="E40" t="n">
-        <v>14.8286831751597</v>
+        <v>14.26304449116</v>
       </c>
       <c r="F40" t="n">
-        <v>14.8582298407726</v>
+        <v>15.7936199259015</v>
       </c>
       <c r="G40" t="n">
-        <v>17.7509735297215</v>
+        <v>16.4105669318867</v>
       </c>
       <c r="H40" t="n">
-        <v>17.0249602800718</v>
+        <v>17.0696492162388</v>
       </c>
       <c r="I40" t="n">
-        <v>18.3055191243446</v>
+        <v>16.6103967914776</v>
       </c>
       <c r="J40" t="n">
-        <v>19.7874326734305</v>
+        <v>19.1524456263721</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.837653970799</v>
+        <v>-4.96038496046877</v>
       </c>
       <c r="B41" t="n">
-        <v>11.3578753567283</v>
+        <v>12.6676447115234</v>
       </c>
       <c r="C41" t="n">
-        <v>11.2766180248781</v>
+        <v>13.3910446119118</v>
       </c>
       <c r="D41" t="n">
-        <v>13.170635655793</v>
+        <v>13.5935284189038</v>
       </c>
       <c r="E41" t="n">
-        <v>13.9081180027435</v>
+        <v>13.7519356390513</v>
       </c>
       <c r="F41" t="n">
-        <v>14.7120538915595</v>
+        <v>14.6928658693968</v>
       </c>
       <c r="G41" t="n">
-        <v>15.4870890216939</v>
+        <v>16.561138431845</v>
       </c>
       <c r="H41" t="n">
-        <v>15.1204336797916</v>
+        <v>16.7994336997193</v>
       </c>
       <c r="I41" t="n">
-        <v>16.068330766508</v>
+        <v>17.2569465209783</v>
       </c>
       <c r="J41" t="n">
-        <v>18.7042616003734</v>
+        <v>18.7127554301403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-4.52125292537722</v>
+        <v>9.42949540278924</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.49111516762322</v>
+        <v>11.8144091882445</v>
       </c>
       <c r="C42" t="n">
-        <v>-6.09970478271548</v>
+        <v>11.5377613429301</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.69783329294282</v>
+        <v>12.3470726735384</v>
       </c>
       <c r="E42" t="n">
-        <v>13.5819467568428</v>
+        <v>13.6903128903789</v>
       </c>
       <c r="F42" t="n">
-        <v>15.2593164876983</v>
+        <v>14.91739228573</v>
       </c>
       <c r="G42" t="n">
-        <v>16.5868061862167</v>
+        <v>15.3119536918827</v>
       </c>
       <c r="H42" t="n">
-        <v>17.9162643943083</v>
+        <v>-8.39891392086229</v>
       </c>
       <c r="I42" t="n">
-        <v>16.922055341941</v>
+        <v>-8.64285109223877</v>
       </c>
       <c r="J42" t="n">
-        <v>17.9791494509395</v>
+        <v>-9.26244575428064</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-4.95047722992034</v>
+        <v>-4.86231303729187</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.18803134241323</v>
+        <v>-5.76432826272234</v>
       </c>
       <c r="C43" t="n">
-        <v>12.5738479353861</v>
+        <v>-5.70973456727698</v>
       </c>
       <c r="D43" t="n">
-        <v>13.1890971049454</v>
+        <v>-6.39977533371928</v>
       </c>
       <c r="E43" t="n">
-        <v>12.8692307694011</v>
+        <v>-6.25694554627365</v>
       </c>
       <c r="F43" t="n">
-        <v>15.7161016957544</v>
+        <v>-7.12038686498362</v>
       </c>
       <c r="G43" t="n">
-        <v>15.541793142075</v>
+        <v>-7.82470427036675</v>
       </c>
       <c r="H43" t="n">
-        <v>18.7978956266889</v>
+        <v>-8.1406666158545</v>
       </c>
       <c r="I43" t="n">
-        <v>18.9398679533182</v>
+        <v>-9.04324603825308</v>
       </c>
       <c r="J43" t="n">
-        <v>20.3282662258262</v>
+        <v>-9.36534646299346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.1574370060845</v>
+        <v>9.41618580796339</v>
       </c>
       <c r="B44" t="n">
-        <v>10.7889889075742</v>
+        <v>-5.69643824262371</v>
       </c>
       <c r="C44" t="n">
-        <v>11.2066613228055</v>
+        <v>-5.95773013525403</v>
       </c>
       <c r="D44" t="n">
-        <v>13.0464776795742</v>
+        <v>-6.73079733373733</v>
       </c>
       <c r="E44" t="n">
-        <v>14.4303584391079</v>
+        <v>-6.84025751619873</v>
       </c>
       <c r="F44" t="n">
-        <v>15.6820167917644</v>
+        <v>-7.38870434038785</v>
       </c>
       <c r="G44" t="n">
-        <v>14.9731334114857</v>
+        <v>-7.76234728383781</v>
       </c>
       <c r="H44" t="n">
-        <v>17.377358709451</v>
+        <v>-8.70195359289848</v>
       </c>
       <c r="I44" t="n">
-        <v>17.6197155203318</v>
+        <v>-9.17782949908762</v>
       </c>
       <c r="J44" t="n">
-        <v>18.3556885760081</v>
+        <v>-9.89900175194549</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.90139596602231</v>
+        <v>11.2093865853705</v>
       </c>
       <c r="B45" t="n">
-        <v>11.4307069302281</v>
+        <v>11.2208162575675</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.22425859930228</v>
+        <v>12.9381888958671</v>
       </c>
       <c r="D45" t="n">
-        <v>-6.51891627703853</v>
+        <v>13.6037497467116</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.76582233994858</v>
+        <v>14.210818863197</v>
       </c>
       <c r="F45" t="n">
-        <v>15.0106817751857</v>
+        <v>13.9878525229458</v>
       </c>
       <c r="G45" t="n">
-        <v>15.8955668531155</v>
+        <v>16.2950704056525</v>
       </c>
       <c r="H45" t="n">
-        <v>17.211732833545</v>
+        <v>18.1907472922638</v>
       </c>
       <c r="I45" t="n">
-        <v>17.8915549525946</v>
+        <v>16.6517211732569</v>
       </c>
       <c r="J45" t="n">
-        <v>19.0839987541115</v>
+        <v>18.2366902051224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.85868191701916</v>
+        <v>-5.2229853936624</v>
       </c>
       <c r="B46" t="n">
-        <v>9.78372953711342</v>
+        <v>11.0942476859316</v>
       </c>
       <c r="C46" t="n">
-        <v>12.5861905622298</v>
+        <v>11.938052277539</v>
       </c>
       <c r="D46" t="n">
-        <v>14.047304473171</v>
+        <v>14.0786003056413</v>
       </c>
       <c r="E46" t="n">
-        <v>13.1652371793527</v>
+        <v>14.2978774570392</v>
       </c>
       <c r="F46" t="n">
-        <v>15.4236269428971</v>
+        <v>14.5969683049235</v>
       </c>
       <c r="G46" t="n">
-        <v>15.8852202471414</v>
+        <v>16.0454697328872</v>
       </c>
       <c r="H46" t="n">
-        <v>17.3459327271396</v>
+        <v>17.6696273880036</v>
       </c>
       <c r="I46" t="n">
-        <v>18.2962749758541</v>
+        <v>18.9287612269801</v>
       </c>
       <c r="J46" t="n">
-        <v>19.6923428384202</v>
+        <v>18.2990915794975</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.77369809133214</v>
+        <v>-5.13346379799415</v>
       </c>
       <c r="B47" t="n">
-        <v>10.8000561770742</v>
+        <v>-5.29196927518265</v>
       </c>
       <c r="C47" t="n">
-        <v>13.1143318356627</v>
+        <v>-6.27822644314945</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.68767603616195</v>
+        <v>-6.69183558021699</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.12576791149347</v>
+        <v>-6.8140963876115</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.39770548856333</v>
+        <v>-6.97944028101205</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.66049259400052</v>
+        <v>-7.76673001035004</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.68353822113294</v>
+        <v>-8.70366505485462</v>
       </c>
       <c r="I47" t="n">
-        <v>-9.28151726263759</v>
+        <v>-8.801280745137</v>
       </c>
       <c r="J47" t="n">
-        <v>-9.34439549639824</v>
+        <v>-9.28187018285565</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.78376389378225</v>
+        <v>9.37977908646191</v>
       </c>
       <c r="B48" t="n">
-        <v>11.1449300308382</v>
+        <v>10.2608324533826</v>
       </c>
       <c r="C48" t="n">
-        <v>11.3515736153164</v>
+        <v>12.3338583292066</v>
       </c>
       <c r="D48" t="n">
-        <v>13.8020195949132</v>
+        <v>13.3770896338677</v>
       </c>
       <c r="E48" t="n">
-        <v>16.7352141163833</v>
+        <v>14.4948646221393</v>
       </c>
       <c r="F48" t="n">
-        <v>14.4071777964096</v>
+        <v>14.6268549387236</v>
       </c>
       <c r="G48" t="n">
-        <v>15.5250827314217</v>
+        <v>16.6789685367158</v>
       </c>
       <c r="H48" t="n">
-        <v>16.5266563483361</v>
+        <v>16.7008424417628</v>
       </c>
       <c r="I48" t="n">
-        <v>19.6171004465158</v>
+        <v>17.4756467781336</v>
       </c>
       <c r="J48" t="n">
-        <v>18.2905105502785</v>
+        <v>18.9204473122482</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.27345324487399</v>
+        <v>10.4802800580557</v>
       </c>
       <c r="B49" t="n">
-        <v>12.2236853562997</v>
+        <v>10.5974276282206</v>
       </c>
       <c r="C49" t="n">
-        <v>10.8299713459499</v>
+        <v>13.1269734347811</v>
       </c>
       <c r="D49" t="n">
-        <v>11.9226142538665</v>
+        <v>14.0489117096548</v>
       </c>
       <c r="E49" t="n">
-        <v>14.3903592418904</v>
+        <v>13.9975296086178</v>
       </c>
       <c r="F49" t="n">
-        <v>14.776459096195</v>
+        <v>13.8345140814553</v>
       </c>
       <c r="G49" t="n">
-        <v>16.7891366961475</v>
+        <v>14.8766044413628</v>
       </c>
       <c r="H49" t="n">
-        <v>16.3368617156961</v>
+        <v>16.6260245535225</v>
       </c>
       <c r="I49" t="n">
-        <v>16.8447916986308</v>
+        <v>18.6804068131861</v>
       </c>
       <c r="J49" t="n">
-        <v>20.2080504913754</v>
+        <v>18.5578317525643</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-4.57291775329562</v>
+        <v>10.3862225583893</v>
       </c>
       <c r="B50" t="n">
-        <v>-5.40316247950529</v>
+        <v>-5.57038321004034</v>
       </c>
       <c r="C50" t="n">
-        <v>-5.93716772411084</v>
+        <v>-6.07837400750854</v>
       </c>
       <c r="D50" t="n">
-        <v>-6.5558113677024</v>
+        <v>-6.35662583538986</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.39005040872898</v>
+        <v>-6.9420287030997</v>
       </c>
       <c r="F50" t="n">
-        <v>-7.15769369291308</v>
+        <v>15.1433571880056</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.04601843163741</v>
+        <v>17.4424108211171</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.42346536605022</v>
+        <v>16.9744726653059</v>
       </c>
       <c r="I50" t="n">
-        <v>-8.44664487826774</v>
+        <v>16.9059532127109</v>
       </c>
       <c r="J50" t="n">
-        <v>-9.95400079465109</v>
+        <v>19.0537067956685</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.96673766855477</v>
+        <v>-5.12529212351006</v>
       </c>
       <c r="B51" t="n">
-        <v>11.8185793180273</v>
+        <v>-5.38382426934075</v>
       </c>
       <c r="C51" t="n">
-        <v>11.7700687459243</v>
+        <v>-5.99646789558435</v>
       </c>
       <c r="D51" t="n">
-        <v>14.14512792903</v>
+        <v>-6.19380339286473</v>
       </c>
       <c r="E51" t="n">
-        <v>13.5372893628464</v>
+        <v>-6.98336938039935</v>
       </c>
       <c r="F51" t="n">
-        <v>13.703637226706</v>
+        <v>-7.59324262494087</v>
       </c>
       <c r="G51" t="n">
-        <v>16.5305867366589</v>
+        <v>-7.99019488856097</v>
       </c>
       <c r="H51" t="n">
-        <v>16.7806102307984</v>
+        <v>-8.60573600298565</v>
       </c>
       <c r="I51" t="n">
-        <v>19.0674088142507</v>
+        <v>-9.36818290269534</v>
       </c>
       <c r="J51" t="n">
-        <v>19.5315403209572</v>
+        <v>-9.64423509524351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.98998865536707</v>
+        <v>9.70982473340462</v>
       </c>
       <c r="B52" t="n">
-        <v>10.1374802279226</v>
+        <v>11.423607877324</v>
       </c>
       <c r="C52" t="n">
-        <v>12.447699078654</v>
+        <v>12.1020263728195</v>
       </c>
       <c r="D52" t="n">
-        <v>13.9267403892636</v>
+        <v>13.1030293470908</v>
       </c>
       <c r="E52" t="n">
-        <v>12.8434493235325</v>
+        <v>14.0243394473269</v>
       </c>
       <c r="F52" t="n">
-        <v>15.6409516931489</v>
+        <v>15.1600340033697</v>
       </c>
       <c r="G52" t="n">
-        <v>15.3977430805831</v>
+        <v>16.0157352687308</v>
       </c>
       <c r="H52" t="n">
-        <v>16.7107887010869</v>
+        <v>16.7362966118332</v>
       </c>
       <c r="I52" t="n">
-        <v>16.7183910300735</v>
+        <v>18.3511936865733</v>
       </c>
       <c r="J52" t="n">
-        <v>19.2456351527691</v>
+        <v>18.3704425418296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.76597222833262</v>
+        <v>10.1876692457601</v>
       </c>
       <c r="B53" t="n">
-        <v>9.66543259577949</v>
+        <v>11.2455952853211</v>
       </c>
       <c r="C53" t="n">
-        <v>12.6507000493077</v>
+        <v>12.0974983622633</v>
       </c>
       <c r="D53" t="n">
-        <v>12.5605550103493</v>
+        <v>12.9608205750757</v>
       </c>
       <c r="E53" t="n">
-        <v>14.8903532316282</v>
+        <v>14.428829663317</v>
       </c>
       <c r="F53" t="n">
-        <v>14.5173265719758</v>
+        <v>15.5862630298768</v>
       </c>
       <c r="G53" t="n">
-        <v>15.5907615235706</v>
+        <v>16.2585251152617</v>
       </c>
       <c r="H53" t="n">
-        <v>15.6158992936642</v>
+        <v>16.6120176484668</v>
       </c>
       <c r="I53" t="n">
-        <v>18.5080212742524</v>
+        <v>17.9276978542025</v>
       </c>
       <c r="J53" t="n">
-        <v>18.1268765078544</v>
+        <v>18.8114774422499</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.72328078701738</v>
+        <v>8.90723830193861</v>
       </c>
       <c r="B54" t="n">
-        <v>9.01631895341302</v>
+        <v>10.7335132491619</v>
       </c>
       <c r="C54" t="n">
-        <v>11.4335662283938</v>
+        <v>11.0527116497116</v>
       </c>
       <c r="D54" t="n">
-        <v>12.3720815940752</v>
+        <v>13.2043670258489</v>
       </c>
       <c r="E54" t="n">
-        <v>12.264314767421</v>
+        <v>13.3523556725222</v>
       </c>
       <c r="F54" t="n">
-        <v>14.7199434222325</v>
+        <v>14.8785082171612</v>
       </c>
       <c r="G54" t="n">
-        <v>14.3383510691066</v>
+        <v>15.3246148911159</v>
       </c>
       <c r="H54" t="n">
-        <v>16.5475710755596</v>
+        <v>17.8313476792351</v>
       </c>
       <c r="I54" t="n">
-        <v>17.5420297607024</v>
+        <v>19.0222958508043</v>
       </c>
       <c r="J54" t="n">
-        <v>18.8279512538071</v>
+        <v>20.0061377552083</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.0784380653777</v>
+        <v>9.34971291892938</v>
       </c>
       <c r="B55" t="n">
-        <v>11.4280738305912</v>
+        <v>10.6524763631682</v>
       </c>
       <c r="C55" t="n">
-        <v>11.5099459483508</v>
+        <v>11.9324605903846</v>
       </c>
       <c r="D55" t="n">
-        <v>14.2642241181763</v>
+        <v>14.4780772958896</v>
       </c>
       <c r="E55" t="n">
-        <v>15.6884042747857</v>
+        <v>14.7411940872435</v>
       </c>
       <c r="F55" t="n">
-        <v>14.5167879031955</v>
+        <v>16.9214479599512</v>
       </c>
       <c r="G55" t="n">
-        <v>15.7305884643672</v>
+        <v>14.3029173648516</v>
       </c>
       <c r="H55" t="n">
-        <v>16.5579732204762</v>
+        <v>17.205154243435</v>
       </c>
       <c r="I55" t="n">
-        <v>17.8221543793748</v>
+        <v>17.76365286716</v>
       </c>
       <c r="J55" t="n">
-        <v>17.6422431729548</v>
+        <v>18.6407063585985</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.102384739008</v>
+        <v>-5.14571292142044</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0502571774933</v>
+        <v>-5.95261373681552</v>
       </c>
       <c r="C56" t="n">
-        <v>11.9657398760291</v>
+        <v>-5.89612494994164</v>
       </c>
       <c r="D56" t="n">
-        <v>12.8681611527158</v>
+        <v>-6.79011197293089</v>
       </c>
       <c r="E56" t="n">
-        <v>15.5927225990689</v>
+        <v>-6.91284544099009</v>
       </c>
       <c r="F56" t="n">
-        <v>16.1524778727428</v>
+        <v>-7.97187490477672</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.7598012884864</v>
+        <v>-8.21816603667678</v>
       </c>
       <c r="H56" t="n">
-        <v>16.2730782273622</v>
+        <v>-8.25926579992858</v>
       </c>
       <c r="I56" t="n">
-        <v>18.6052221794632</v>
+        <v>-9.42257083908511</v>
       </c>
       <c r="J56" t="n">
-        <v>18.3541729056511</v>
+        <v>-9.64427126401786</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.73534601798332</v>
+        <v>9.54488307381046</v>
       </c>
       <c r="B57" t="n">
-        <v>10.8227167640326</v>
+        <v>-5.67457580569773</v>
       </c>
       <c r="C57" t="n">
-        <v>10.6721960009589</v>
+        <v>-5.8275663645271</v>
       </c>
       <c r="D57" t="n">
-        <v>13.2140786109543</v>
+        <v>-6.65517703646518</v>
       </c>
       <c r="E57" t="n">
-        <v>14.1412646337848</v>
+        <v>-6.86590402808131</v>
       </c>
       <c r="F57" t="n">
-        <v>15.8726884697034</v>
+        <v>-7.49526378378337</v>
       </c>
       <c r="G57" t="n">
-        <v>15.6297841842129</v>
+        <v>-8.19000894136068</v>
       </c>
       <c r="H57" t="n">
-        <v>16.0583381162172</v>
+        <v>-8.65919014562409</v>
       </c>
       <c r="I57" t="n">
-        <v>17.502632372879</v>
+        <v>-8.86893110748175</v>
       </c>
       <c r="J57" t="n">
-        <v>18.4479814250041</v>
+        <v>-9.62272930042492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9.44555176296334</v>
+        <v>8.89170755240056</v>
       </c>
       <c r="B58" t="n">
-        <v>10.6475864237246</v>
+        <v>11.8184223116768</v>
       </c>
       <c r="C58" t="n">
-        <v>12.8268540155975</v>
+        <v>12.9808457579222</v>
       </c>
       <c r="D58" t="n">
-        <v>12.4590465544237</v>
+        <v>13.1199023440731</v>
       </c>
       <c r="E58" t="n">
-        <v>14.3491455365632</v>
+        <v>-6.88254455650118</v>
       </c>
       <c r="F58" t="n">
-        <v>15.7338963789341</v>
+        <v>-7.72429495085001</v>
       </c>
       <c r="G58" t="n">
-        <v>14.8791548370626</v>
+        <v>-7.78290790384831</v>
       </c>
       <c r="H58" t="n">
-        <v>17.7048592154428</v>
+        <v>-8.7232130778828</v>
       </c>
       <c r="I58" t="n">
-        <v>17.3268593352418</v>
+        <v>-9.21353298268468</v>
       </c>
       <c r="J58" t="n">
-        <v>19.4351031162227</v>
+        <v>-9.24582937451473</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.0694091702252</v>
+        <v>9.0869028712185</v>
       </c>
       <c r="B59" t="n">
-        <v>12.3357586452047</v>
+        <v>10.3307951538636</v>
       </c>
       <c r="C59" t="n">
-        <v>12.4446158936922</v>
+        <v>12.0639241173779</v>
       </c>
       <c r="D59" t="n">
-        <v>13.1433881247098</v>
+        <v>13.3259327215419</v>
       </c>
       <c r="E59" t="n">
-        <v>13.291907291868</v>
+        <v>14.1047665259038</v>
       </c>
       <c r="F59" t="n">
-        <v>15.1351157356079</v>
+        <v>14.3569113203378</v>
       </c>
       <c r="G59" t="n">
-        <v>14.995106983831</v>
+        <v>16.2201259839701</v>
       </c>
       <c r="H59" t="n">
-        <v>17.5599735812789</v>
+        <v>17.742247881842</v>
       </c>
       <c r="I59" t="n">
-        <v>19.0390257753541</v>
+        <v>16.0553318095467</v>
       </c>
       <c r="J59" t="n">
-        <v>18.4079035001517</v>
+        <v>18.9281961907409</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.998770862483</v>
+        <v>9.47324114738561</v>
       </c>
       <c r="B60" t="n">
-        <v>11.0009709453399</v>
+        <v>10.761611794575</v>
       </c>
       <c r="C60" t="n">
-        <v>11.8679958805499</v>
+        <v>11.669570023741</v>
       </c>
       <c r="D60" t="n">
-        <v>12.9234313903281</v>
+        <v>12.3984753413632</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.99242877449705</v>
+        <v>12.4208236876342</v>
       </c>
       <c r="F60" t="n">
-        <v>-7.19713824741125</v>
+        <v>15.383416733646</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.77881247866709</v>
+        <v>15.2166381685669</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.27719485833549</v>
+        <v>17.6841663725521</v>
       </c>
       <c r="I60" t="n">
-        <v>-8.86572218960029</v>
+        <v>-8.95744580381155</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.53119520686294</v>
+        <v>-9.37305035550692</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.15813334424086</v>
+        <v>9.87730541335701</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.28011765433641</v>
+        <v>10.5335617511945</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.66184103380564</v>
+        <v>11.5996113580377</v>
       </c>
       <c r="D61" t="n">
-        <v>12.2438045117265</v>
+        <v>12.9117144285041</v>
       </c>
       <c r="E61" t="n">
-        <v>13.6582448331189</v>
+        <v>14.4634621879853</v>
       </c>
       <c r="F61" t="n">
-        <v>14.8404323453177</v>
+        <v>13.9185253085122</v>
       </c>
       <c r="G61" t="n">
-        <v>17.1429606022341</v>
+        <v>15.3430665408031</v>
       </c>
       <c r="H61" t="n">
-        <v>16.294653840168</v>
+        <v>17.2679333166586</v>
       </c>
       <c r="I61" t="n">
-        <v>16.6884397452484</v>
+        <v>18.6927210209005</v>
       </c>
       <c r="J61" t="n">
-        <v>19.5849637827605</v>
+        <v>18.7214993360342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.13059525195657</v>
+        <v>8.76516033506419</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.92564303720774</v>
+        <v>11.2233021280674</v>
       </c>
       <c r="C62" t="n">
-        <v>12.6605268803346</v>
+        <v>12.4752687575779</v>
       </c>
       <c r="D62" t="n">
-        <v>11.599339305925</v>
+        <v>12.6461297705188</v>
       </c>
       <c r="E62" t="n">
-        <v>13.9665792537391</v>
+        <v>15.3265046999613</v>
       </c>
       <c r="F62" t="n">
-        <v>15.099429787208</v>
+        <v>14.5577271981061</v>
       </c>
       <c r="G62" t="n">
-        <v>16.6513107104861</v>
+        <v>16.8652410351189</v>
       </c>
       <c r="H62" t="n">
-        <v>17.068734103494</v>
+        <v>16.923538389909</v>
       </c>
       <c r="I62" t="n">
-        <v>18.0356225705924</v>
+        <v>18.4828662329415</v>
       </c>
       <c r="J62" t="n">
-        <v>19.2859912830439</v>
+        <v>18.9682883303999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.20733701441172</v>
+        <v>10.2451578304917</v>
       </c>
       <c r="B63" t="n">
-        <v>12.1812519047968</v>
+        <v>10.1947933894099</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.59391008887758</v>
+        <v>12.314743114586</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.29760739949545</v>
+        <v>-6.35386981982484</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.6046372670242</v>
+        <v>-6.99444512890665</v>
       </c>
       <c r="F63" t="n">
-        <v>-7.31835736155962</v>
+        <v>-7.4352940746146</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.28490339203764</v>
+        <v>-8.10636925321588</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.79060343129578</v>
+        <v>-8.46159208488013</v>
       </c>
       <c r="I63" t="n">
-        <v>-8.90833565791001</v>
+        <v>-9.02407539750564</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.59797605406229</v>
+        <v>-9.72214216795195</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>12.1592475487164</v>
+        <v>10.9957585215776</v>
       </c>
       <c r="B64" t="n">
-        <v>10.1288667115541</v>
+        <v>-5.48088118265388</v>
       </c>
       <c r="C64" t="n">
-        <v>11.7808263768949</v>
+        <v>-5.6582364007569</v>
       </c>
       <c r="D64" t="n">
-        <v>13.4224060963854</v>
+        <v>-5.86540758240863</v>
       </c>
       <c r="E64" t="n">
-        <v>15.2675328807448</v>
+        <v>-6.8483932613976</v>
       </c>
       <c r="F64" t="n">
-        <v>14.4420665684036</v>
+        <v>-7.54502922794554</v>
       </c>
       <c r="G64" t="n">
-        <v>16.3555596766851</v>
+        <v>-7.97972342019941</v>
       </c>
       <c r="H64" t="n">
-        <v>17.2992671643758</v>
+        <v>-8.19370373221224</v>
       </c>
       <c r="I64" t="n">
-        <v>18.3208724107323</v>
+        <v>-9.2444923268468</v>
       </c>
       <c r="J64" t="n">
-        <v>19.2210565273962</v>
+        <v>-9.84141050643513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-5.02292034622934</v>
+        <v>10.4414148344823</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.45385741472818</v>
+        <v>11.5656690970828</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.97417808261532</v>
+        <v>12.0622323281464</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.61442256930928</v>
+        <v>12.8675107355348</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.62417200128852</v>
+        <v>13.258599782584</v>
       </c>
       <c r="F65" t="n">
-        <v>-8.00486836057326</v>
+        <v>-7.22735245790898</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.15406684093759</v>
+        <v>-8.04737765441055</v>
       </c>
       <c r="H65" t="n">
-        <v>-8.2352919112976</v>
+        <v>-8.71143633985663</v>
       </c>
       <c r="I65" t="n">
-        <v>-9.67915787352676</v>
+        <v>-9.08458490235186</v>
       </c>
       <c r="J65" t="n">
-        <v>-9.51364783028119</v>
+        <v>-9.7746756273336</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.1483958902487</v>
+        <v>10.9084397998309</v>
       </c>
       <c r="B66" t="n">
-        <v>10.4236406882909</v>
+        <v>11.4252294002645</v>
       </c>
       <c r="C66" t="n">
-        <v>13.3489666271868</v>
+        <v>12.9409527147386</v>
       </c>
       <c r="D66" t="n">
-        <v>13.3756944179709</v>
+        <v>-6.27504154492689</v>
       </c>
       <c r="E66" t="n">
-        <v>12.9796579107678</v>
+        <v>-7.5599954470763</v>
       </c>
       <c r="F66" t="n">
-        <v>14.4533539553484</v>
+        <v>-7.79872655510886</v>
       </c>
       <c r="G66" t="n">
-        <v>15.0175268554594</v>
+        <v>-7.95151182714864</v>
       </c>
       <c r="H66" t="n">
-        <v>17.7684275746047</v>
+        <v>-8.73060677001726</v>
       </c>
       <c r="I66" t="n">
-        <v>18.4371412307246</v>
+        <v>-8.91321452965</v>
       </c>
       <c r="J66" t="n">
-        <v>19.5933235135378</v>
+        <v>-9.53190975406829</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.05818697796406</v>
+        <v>11.7385475372145</v>
       </c>
       <c r="B67" t="n">
-        <v>9.85238802885857</v>
+        <v>11.9913159646898</v>
       </c>
       <c r="C67" t="n">
-        <v>12.3021479273421</v>
+        <v>11.1044300612695</v>
       </c>
       <c r="D67" t="n">
-        <v>11.5801380188065</v>
+        <v>11.4972804909825</v>
       </c>
       <c r="E67" t="n">
-        <v>14.3892196118595</v>
+        <v>13.8794377504292</v>
       </c>
       <c r="F67" t="n">
-        <v>15.7246286980715</v>
+        <v>-7.15192474922383</v>
       </c>
       <c r="G67" t="n">
-        <v>15.1929072023383</v>
+        <v>-7.68445547404211</v>
       </c>
       <c r="H67" t="n">
-        <v>18.4670537943164</v>
+        <v>-8.67612497476357</v>
       </c>
       <c r="I67" t="n">
-        <v>18.2869268465054</v>
+        <v>-8.64208860863864</v>
       </c>
       <c r="J67" t="n">
-        <v>20.2775719378055</v>
+        <v>-9.60839079707958</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.14092046850067</v>
+        <v>9.23469073127871</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9232511072905</v>
+        <v>10.3223167550966</v>
       </c>
       <c r="C68" t="n">
-        <v>11.7441635561734</v>
+        <v>11.3609254301667</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.44812712857148</v>
+        <v>13.7176442033328</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.79409019083132</v>
+        <v>16.1417786799758</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.66444194478788</v>
+        <v>14.9196712026685</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.92606943200506</v>
+        <v>16.0986332832774</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.61558185650127</v>
+        <v>17.689856016622</v>
       </c>
       <c r="I68" t="n">
-        <v>-8.91335771377401</v>
+        <v>17.766903913892</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.50114129764925</v>
+        <v>17.1089701543153</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.650893985817</v>
+        <v>9.83161279830344</v>
       </c>
       <c r="B69" t="n">
-        <v>9.75770832495331</v>
+        <v>11.3204136993342</v>
       </c>
       <c r="C69" t="n">
-        <v>11.4528740951581</v>
+        <v>13.3825413411634</v>
       </c>
       <c r="D69" t="n">
-        <v>12.9559882520139</v>
+        <v>12.2352215842844</v>
       </c>
       <c r="E69" t="n">
-        <v>14.3941877445289</v>
+        <v>13.3593833525134</v>
       </c>
       <c r="F69" t="n">
-        <v>-7.33359947047677</v>
+        <v>14.1657947191261</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.99043976022614</v>
+        <v>15.4484980579268</v>
       </c>
       <c r="H69" t="n">
-        <v>-8.54452853143327</v>
+        <v>16.7990642436911</v>
       </c>
       <c r="I69" t="n">
-        <v>-8.89256537715538</v>
+        <v>17.239843193589</v>
       </c>
       <c r="J69" t="n">
-        <v>-9.51896229398943</v>
+        <v>18.351718315707</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.8756675423592</v>
+        <v>9.30624578288116</v>
       </c>
       <c r="B70" t="n">
-        <v>9.70673721641293</v>
+        <v>11.5928354669546</v>
       </c>
       <c r="C70" t="n">
-        <v>12.4041636792698</v>
+        <v>12.9446248105137</v>
       </c>
       <c r="D70" t="n">
-        <v>12.5813843102697</v>
+        <v>13.3733139237035</v>
       </c>
       <c r="E70" t="n">
-        <v>14.2170546661357</v>
+        <v>14.47560226112</v>
       </c>
       <c r="F70" t="n">
-        <v>15.1349256143452</v>
+        <v>15.3299965816449</v>
       </c>
       <c r="G70" t="n">
-        <v>14.943123816178</v>
+        <v>15.8324472568813</v>
       </c>
       <c r="H70" t="n">
-        <v>17.4613044000096</v>
+        <v>16.0327104076711</v>
       </c>
       <c r="I70" t="n">
-        <v>17.6135325453235</v>
+        <v>18.0034765115905</v>
       </c>
       <c r="J70" t="n">
-        <v>18.7622270776289</v>
+        <v>18.8815220773269</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-5.14882690444175</v>
+        <v>11.0179347852535</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.63100147605265</v>
+        <v>10.2282119518223</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.38323215865097</v>
+        <v>11.9882423330569</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.57846543316609</v>
+        <v>12.7981966154708</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.06309069896069</v>
+        <v>13.144766393436</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.61989228453294</v>
+        <v>14.4349427038452</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.89693992848957</v>
+        <v>17.036107400989</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.44763286789353</v>
+        <v>16.5793628723425</v>
       </c>
       <c r="I71" t="n">
-        <v>-9.04667027570725</v>
+        <v>18.6835801497103</v>
       </c>
       <c r="J71" t="n">
-        <v>-9.21543550871566</v>
+        <v>-10.0424610800352</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.36894517667505</v>
+        <v>10.7083796747252</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.4395562848545</v>
+        <v>10.7443072961218</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.91525247371077</v>
+        <v>12.2785207809315</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.77060318975244</v>
+        <v>13.0807132637697</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.51402398104238</v>
+        <v>13.593942603082</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.89652053000835</v>
+        <v>13.8034340841442</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.06696221017633</v>
+        <v>15.8097306743617</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.50989881197993</v>
+        <v>17.9840030647756</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.98873297600065</v>
+        <v>17.7574835211182</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.53363777644718</v>
+        <v>19.2034224338532</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8.34365416089244</v>
+        <v>11.6795264829924</v>
       </c>
       <c r="B73" t="n">
-        <v>10.3825262104989</v>
+        <v>11.1011214697178</v>
       </c>
       <c r="C73" t="n">
-        <v>11.4087661298084</v>
+        <v>12.7716812965325</v>
       </c>
       <c r="D73" t="n">
-        <v>13.3973394652106</v>
+        <v>12.616526235531</v>
       </c>
       <c r="E73" t="n">
-        <v>13.0437269075122</v>
+        <v>14.6219426852275</v>
       </c>
       <c r="F73" t="n">
-        <v>14.411640155079</v>
+        <v>14.7047361534921</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.3195096740566</v>
+        <v>15.2766086979633</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.48093062237369</v>
+        <v>18.2278778956639</v>
       </c>
       <c r="I73" t="n">
-        <v>-9.20518045836946</v>
+        <v>17.2208598307283</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.73112533487882</v>
+        <v>19.6038391378941</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9.55420874837792</v>
+        <v>-4.72582266677176</v>
       </c>
       <c r="B74" t="n">
-        <v>9.86899309874232</v>
+        <v>-5.57010348665075</v>
       </c>
       <c r="C74" t="n">
-        <v>12.0004605877248</v>
+        <v>-5.68814932194551</v>
       </c>
       <c r="D74" t="n">
-        <v>13.0364676611478</v>
+        <v>-6.76608951223175</v>
       </c>
       <c r="E74" t="n">
-        <v>14.4491718246131</v>
+        <v>-6.8430437611455</v>
       </c>
       <c r="F74" t="n">
-        <v>14.9440354490067</v>
+        <v>-7.13051319477495</v>
       </c>
       <c r="G74" t="n">
-        <v>15.9419344235221</v>
+        <v>-8.08146932725423</v>
       </c>
       <c r="H74" t="n">
-        <v>17.3968748172192</v>
+        <v>-8.17370462668422</v>
       </c>
       <c r="I74" t="n">
-        <v>18.060576554133</v>
+        <v>-8.95410366157245</v>
       </c>
       <c r="J74" t="n">
-        <v>19.6723501792834</v>
+        <v>-9.29482354233195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.3841838620831</v>
+        <v>10.5549529756755</v>
       </c>
       <c r="B75" t="n">
-        <v>12.2013774863306</v>
+        <v>10.6505220252909</v>
       </c>
       <c r="C75" t="n">
-        <v>11.2359998571938</v>
+        <v>11.532902002904</v>
       </c>
       <c r="D75" t="n">
-        <v>12.9674069554399</v>
+        <v>13.0244936427817</v>
       </c>
       <c r="E75" t="n">
-        <v>14.6539449739531</v>
+        <v>14.5804725535267</v>
       </c>
       <c r="F75" t="n">
-        <v>15.328165498881</v>
+        <v>14.4580832939614</v>
       </c>
       <c r="G75" t="n">
-        <v>15.8101255617841</v>
+        <v>14.4982987697362</v>
       </c>
       <c r="H75" t="n">
-        <v>16.116661630339</v>
+        <v>17.6718994716429</v>
       </c>
       <c r="I75" t="n">
-        <v>17.8919048907386</v>
+        <v>18.4044375170507</v>
       </c>
       <c r="J75" t="n">
-        <v>19.076144994633</v>
+        <v>18.6516695106842</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.95507454591698</v>
+        <v>-4.95030305534071</v>
       </c>
       <c r="B76" t="n">
-        <v>9.77388939584795</v>
+        <v>-5.78395090887663</v>
       </c>
       <c r="C76" t="n">
-        <v>12.2912977721152</v>
+        <v>-5.29876042899757</v>
       </c>
       <c r="D76" t="n">
-        <v>12.3515491034459</v>
+        <v>-6.68721466882146</v>
       </c>
       <c r="E76" t="n">
-        <v>13.2649109258209</v>
+        <v>-6.76357856466969</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.50878261832835</v>
+        <v>-7.57742799131386</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.32264256044205</v>
+        <v>-8.14973124766516</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.21270083551875</v>
+        <v>-8.65668655468971</v>
       </c>
       <c r="I76" t="n">
-        <v>-8.78028457496062</v>
+        <v>-8.9193306278289</v>
       </c>
       <c r="J76" t="n">
-        <v>-9.63546200172459</v>
+        <v>-9.49714077620049</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-5.14124309618512</v>
+        <v>-4.56804167911118</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.55983369277898</v>
+        <v>-5.44267059828811</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.76054272363453</v>
+        <v>-5.98849894236627</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.45695831009692</v>
+        <v>-6.66482481210281</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.31588011124398</v>
+        <v>-6.86577448354164</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.85966453441606</v>
+        <v>-7.54760106288857</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.02332552677346</v>
+        <v>-7.45880431654136</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.17420023574199</v>
+        <v>-8.71314147217429</v>
       </c>
       <c r="I77" t="n">
-        <v>-9.11401997746484</v>
+        <v>-8.64083325994998</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.88844135182187</v>
+        <v>-9.00270723459837</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-5.43763630130765</v>
+        <v>10.0062775217829</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.45644437397224</v>
+        <v>10.1564621596935</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.53190309626332</v>
+        <v>11.0695669928492</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.51051924621688</v>
+        <v>12.9548771845391</v>
       </c>
       <c r="E78" t="n">
-        <v>-6.31657448544367</v>
+        <v>14.1760153428332</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.56614734152094</v>
+        <v>15.289387766215</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.14916532562141</v>
+        <v>16.0770512533547</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.7597848733375</v>
+        <v>17.7647018154953</v>
       </c>
       <c r="I78" t="n">
-        <v>-8.87596445759439</v>
+        <v>18.7911142846502</v>
       </c>
       <c r="J78" t="n">
-        <v>-9.38059427417885</v>
+        <v>19.6020274562269</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11.0727738049058</v>
+        <v>-5.0877446203898</v>
       </c>
       <c r="B79" t="n">
-        <v>11.876876849755</v>
+        <v>-5.46315796106351</v>
       </c>
       <c r="C79" t="n">
-        <v>11.6940752744268</v>
+        <v>-5.96673502191403</v>
       </c>
       <c r="D79" t="n">
-        <v>12.9967517381274</v>
+        <v>-6.45348542835823</v>
       </c>
       <c r="E79" t="n">
-        <v>13.4369724536407</v>
+        <v>-7.13587072136014</v>
       </c>
       <c r="F79" t="n">
-        <v>14.4927219790038</v>
+        <v>-7.74562086917962</v>
       </c>
       <c r="G79" t="n">
-        <v>16.3985781448755</v>
+        <v>-7.94401152856325</v>
       </c>
       <c r="H79" t="n">
-        <v>17.4179994259513</v>
+        <v>-8.49757871687411</v>
       </c>
       <c r="I79" t="n">
-        <v>17.3369605259614</v>
+        <v>-9.07217081958605</v>
       </c>
       <c r="J79" t="n">
-        <v>19.4216766087808</v>
+        <v>-9.3538226247111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.2006313875397</v>
+        <v>9.66707170345949</v>
       </c>
       <c r="B80" t="n">
-        <v>10.8956831832174</v>
+        <v>10.6754959001729</v>
       </c>
       <c r="C80" t="n">
-        <v>12.5774866975452</v>
+        <v>10.6176374890816</v>
       </c>
       <c r="D80" t="n">
-        <v>12.6242992961106</v>
+        <v>12.8434155902905</v>
       </c>
       <c r="E80" t="n">
-        <v>14.7085293465684</v>
+        <v>-6.99105088706294</v>
       </c>
       <c r="F80" t="n">
-        <v>15.7470906314328</v>
+        <v>-7.56164939572291</v>
       </c>
       <c r="G80" t="n">
-        <v>16.3960994051206</v>
+        <v>-7.82996731655353</v>
       </c>
       <c r="H80" t="n">
-        <v>17.4222883039968</v>
+        <v>-8.56324194171314</v>
       </c>
       <c r="I80" t="n">
-        <v>18.9620218497392</v>
+        <v>-8.71534219155073</v>
       </c>
       <c r="J80" t="n">
-        <v>18.8144058392697</v>
+        <v>-9.11492787655714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.71024260041306</v>
+        <v>10.4790714417297</v>
       </c>
       <c r="B81" t="n">
-        <v>11.7328252503145</v>
+        <v>10.1851373349561</v>
       </c>
       <c r="C81" t="n">
-        <v>13.4886297417727</v>
+        <v>12.0679626980604</v>
       </c>
       <c r="D81" t="n">
-        <v>13.451922316377</v>
+        <v>12.1753050047246</v>
       </c>
       <c r="E81" t="n">
-        <v>14.0259504086654</v>
+        <v>12.5774229825382</v>
       </c>
       <c r="F81" t="n">
-        <v>16.0144570201868</v>
+        <v>15.1533831668514</v>
       </c>
       <c r="G81" t="n">
-        <v>16.2115663863985</v>
+        <v>15.1751304561424</v>
       </c>
       <c r="H81" t="n">
-        <v>16.8446895579205</v>
+        <v>15.6198357687069</v>
       </c>
       <c r="I81" t="n">
-        <v>18.5280396586476</v>
+        <v>17.3014167399163</v>
       </c>
       <c r="J81" t="n">
-        <v>19.4582824005173</v>
+        <v>18.4825004531417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.3985738847029</v>
+        <v>11.183352793918</v>
       </c>
       <c r="B82" t="n">
-        <v>11.310951493087</v>
+        <v>11.1751411965686</v>
       </c>
       <c r="C82" t="n">
-        <v>11.9640240047803</v>
+        <v>11.1587908010424</v>
       </c>
       <c r="D82" t="n">
-        <v>13.0190881268413</v>
+        <v>12.9715545449147</v>
       </c>
       <c r="E82" t="n">
-        <v>13.5867785795578</v>
+        <v>14.104608867924</v>
       </c>
       <c r="F82" t="n">
-        <v>15.1629569416418</v>
+        <v>14.1587582805727</v>
       </c>
       <c r="G82" t="n">
-        <v>16.2474331838948</v>
+        <v>-7.78141301835524</v>
       </c>
       <c r="H82" t="n">
-        <v>15.9950082085759</v>
+        <v>-8.48739807899242</v>
       </c>
       <c r="I82" t="n">
-        <v>18.5747845892059</v>
+        <v>-9.16460944382174</v>
       </c>
       <c r="J82" t="n">
-        <v>17.8799970075007</v>
+        <v>-9.73239104425163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.35391626295147</v>
+        <v>9.40320969933361</v>
       </c>
       <c r="B83" t="n">
-        <v>11.4365010168054</v>
+        <v>-5.62862630842895</v>
       </c>
       <c r="C83" t="n">
-        <v>11.7060331763455</v>
+        <v>-6.54024626304607</v>
       </c>
       <c r="D83" t="n">
-        <v>12.6913725722317</v>
+        <v>-6.34968321033462</v>
       </c>
       <c r="E83" t="n">
-        <v>15.3561509590309</v>
+        <v>-7.04301426695478</v>
       </c>
       <c r="F83" t="n">
-        <v>14.9163324111732</v>
+        <v>-7.50493481148273</v>
       </c>
       <c r="G83" t="n">
-        <v>15.3514526844377</v>
+        <v>-8.14908002872827</v>
       </c>
       <c r="H83" t="n">
-        <v>16.2863799750714</v>
+        <v>-8.19228842325733</v>
       </c>
       <c r="I83" t="n">
-        <v>18.4043206401535</v>
+        <v>-8.79145191193206</v>
       </c>
       <c r="J83" t="n">
-        <v>19.4798792672658</v>
+        <v>18.0848161467952</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.2587091523355</v>
+        <v>9.62805120068606</v>
       </c>
       <c r="B84" t="n">
-        <v>11.5946720666268</v>
+        <v>11.1573165089848</v>
       </c>
       <c r="C84" t="n">
-        <v>12.7700565159339</v>
+        <v>12.1960536264116</v>
       </c>
       <c r="D84" t="n">
-        <v>13.1874066062731</v>
+        <v>13.6865745230947</v>
       </c>
       <c r="E84" t="n">
-        <v>14.6770868122271</v>
+        <v>15.1064508022455</v>
       </c>
       <c r="F84" t="n">
-        <v>14.2183347324165</v>
+        <v>15.1295946886262</v>
       </c>
       <c r="G84" t="n">
-        <v>14.5942485027637</v>
+        <v>15.4997001531124</v>
       </c>
       <c r="H84" t="n">
-        <v>17.4889986949365</v>
+        <v>17.2738307001621</v>
       </c>
       <c r="I84" t="n">
-        <v>18.7015591293473</v>
+        <v>19.1715925863737</v>
       </c>
       <c r="J84" t="n">
-        <v>17.2191529041396</v>
+        <v>19.5329415404045</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10.5083129203008</v>
+        <v>8.6510756448667</v>
       </c>
       <c r="B85" t="n">
-        <v>10.8020988727162</v>
+        <v>11.8227779769753</v>
       </c>
       <c r="C85" t="n">
-        <v>11.3154233167275</v>
+        <v>11.7723736219819</v>
       </c>
       <c r="D85" t="n">
-        <v>12.7516373439521</v>
+        <v>12.5538531609564</v>
       </c>
       <c r="E85" t="n">
-        <v>12.3899328970945</v>
+        <v>13.8121251628002</v>
       </c>
       <c r="F85" t="n">
-        <v>14.4732524447758</v>
+        <v>14.3510489231771</v>
       </c>
       <c r="G85" t="n">
-        <v>15.8573894739812</v>
+        <v>14.8627558017365</v>
       </c>
       <c r="H85" t="n">
-        <v>15.8577076103231</v>
+        <v>17.7109801255074</v>
       </c>
       <c r="I85" t="n">
-        <v>19.3301397845456</v>
+        <v>16.6787162562579</v>
       </c>
       <c r="J85" t="n">
-        <v>18.7398013073796</v>
+        <v>18.5213150767098</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.66260345920077</v>
+        <v>10.171456681161</v>
       </c>
       <c r="B86" t="n">
-        <v>10.8082848423033</v>
+        <v>10.5790268267839</v>
       </c>
       <c r="C86" t="n">
-        <v>13.5502550434076</v>
+        <v>11.270100582096</v>
       </c>
       <c r="D86" t="n">
-        <v>13.0470531403765</v>
+        <v>-6.56789592766119</v>
       </c>
       <c r="E86" t="n">
-        <v>13.5940803398496</v>
+        <v>-6.79039479501236</v>
       </c>
       <c r="F86" t="n">
-        <v>15.682457290398</v>
+        <v>-7.64926521408891</v>
       </c>
       <c r="G86" t="n">
-        <v>15.6020178277706</v>
+        <v>-7.99443281335643</v>
       </c>
       <c r="H86" t="n">
-        <v>16.4168590460427</v>
+        <v>-8.38020105199317</v>
       </c>
       <c r="I86" t="n">
-        <v>18.3210153374639</v>
+        <v>-8.94671331118258</v>
       </c>
       <c r="J86" t="n">
-        <v>18.6622591023511</v>
+        <v>-9.78485027720917</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-5.15741256775714</v>
+        <v>10.7313627575222</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.26577705916169</v>
+        <v>12.1598104782037</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.72426507518663</v>
+        <v>12.4195039120704</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.82514446998716</v>
+        <v>13.2408823716565</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.20218948820198</v>
+        <v>14.4266752167309</v>
       </c>
       <c r="F87" t="n">
-        <v>-7.94058981514886</v>
+        <v>17.0692840319983</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.07824241598515</v>
+        <v>16.0401419996437</v>
       </c>
       <c r="H87" t="n">
-        <v>-8.81722007114074</v>
+        <v>15.6539002292092</v>
       </c>
       <c r="I87" t="n">
-        <v>-9.11409516677587</v>
+        <v>18.2033813683336</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.6756297473861</v>
+        <v>-9.37534089990624</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.0880288091604</v>
+        <v>10.6383063140627</v>
       </c>
       <c r="B88" t="n">
-        <v>10.5539653011783</v>
+        <v>11.0456814205334</v>
       </c>
       <c r="C88" t="n">
-        <v>10.2470647408236</v>
+        <v>12.8341744221688</v>
       </c>
       <c r="D88" t="n">
-        <v>11.5623037883786</v>
+        <v>13.0025447072234</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3006402899309</v>
+        <v>14.405635499365</v>
       </c>
       <c r="F88" t="n">
-        <v>15.2290678511877</v>
+        <v>14.5558510679196</v>
       </c>
       <c r="G88" t="n">
-        <v>16.5865678619886</v>
+        <v>15.9305415517984</v>
       </c>
       <c r="H88" t="n">
-        <v>16.5541114960953</v>
+        <v>17.1185709605635</v>
       </c>
       <c r="I88" t="n">
-        <v>18.509049908479</v>
+        <v>18.6839592593013</v>
       </c>
       <c r="J88" t="n">
-        <v>18.7750229097903</v>
+        <v>-9.73910476199156</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-4.72599602116883</v>
+        <v>-4.77013257041497</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.62325035700464</v>
+        <v>-5.72820892461577</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.48164516221481</v>
+        <v>-5.85873895771199</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.53197603339907</v>
+        <v>-6.23192695405934</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.09384659737184</v>
+        <v>-6.69262762662629</v>
       </c>
       <c r="F89" t="n">
-        <v>-7.50397516241458</v>
+        <v>-7.46341208243981</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.56341115441867</v>
+        <v>-8.53060879730853</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.5985760741612</v>
+        <v>-8.35910078310736</v>
       </c>
       <c r="I89" t="n">
-        <v>-9.09580425378867</v>
+        <v>-9.04356677645536</v>
       </c>
       <c r="J89" t="n">
-        <v>-9.2169765725647</v>
+        <v>-9.38886504796149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-5.42692158311941</v>
+        <v>11.630512521678</v>
       </c>
       <c r="B90" t="n">
-        <v>-5.07423898887802</v>
+        <v>9.55609839893036</v>
       </c>
       <c r="C90" t="n">
-        <v>-6.0409756463938</v>
+        <v>12.5752402259703</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.15112614742782</v>
+        <v>12.9357329331398</v>
       </c>
       <c r="E90" t="n">
-        <v>14.0451590551121</v>
+        <v>13.7476310264708</v>
       </c>
       <c r="F90" t="n">
-        <v>15.1914292329825</v>
+        <v>-7.15533814417859</v>
       </c>
       <c r="G90" t="n">
-        <v>15.8416759836059</v>
+        <v>-7.90223613193186</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.49629889754348</v>
+        <v>-8.67420028964601</v>
       </c>
       <c r="I90" t="n">
-        <v>-8.77393250650941</v>
+        <v>-9.22289602304487</v>
       </c>
       <c r="J90" t="n">
-        <v>-9.93929605993271</v>
+        <v>-9.88846147883352</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.6562530681737</v>
+        <v>-5.21739096207718</v>
       </c>
       <c r="B91" t="n">
-        <v>11.1294119959329</v>
+        <v>-5.83746767976508</v>
       </c>
       <c r="C91" t="n">
-        <v>10.6487442321491</v>
+        <v>-6.13421835914251</v>
       </c>
       <c r="D91" t="n">
-        <v>13.5969924237319</v>
+        <v>-6.68438782782106</v>
       </c>
       <c r="E91" t="n">
-        <v>12.8501253245808</v>
+        <v>-7.08728107506256</v>
       </c>
       <c r="F91" t="n">
-        <v>12.4493965317734</v>
+        <v>-7.91484657400289</v>
       </c>
       <c r="G91" t="n">
-        <v>15.0787153076519</v>
+        <v>-8.03796808086755</v>
       </c>
       <c r="H91" t="n">
-        <v>16.7790953025979</v>
+        <v>-8.68569878543285</v>
       </c>
       <c r="I91" t="n">
-        <v>17.8102906682367</v>
+        <v>-8.71627022581204</v>
       </c>
       <c r="J91" t="n">
-        <v>19.5477998219777</v>
+        <v>-9.56298000097412</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.38320665589478</v>
+        <v>10.8313454769162</v>
       </c>
       <c r="B92" t="n">
-        <v>11.3954277809793</v>
+        <v>11.546782599159</v>
       </c>
       <c r="C92" t="n">
-        <v>12.1133755034675</v>
+        <v>-5.88945304221107</v>
       </c>
       <c r="D92" t="n">
-        <v>13.2512297663373</v>
+        <v>-6.58504410145745</v>
       </c>
       <c r="E92" t="n">
-        <v>14.2973063761112</v>
+        <v>-7.66189256172264</v>
       </c>
       <c r="F92" t="n">
-        <v>15.9920512446711</v>
+        <v>-7.31972617379984</v>
       </c>
       <c r="G92" t="n">
-        <v>16.8315683269433</v>
+        <v>-8.22401931754146</v>
       </c>
       <c r="H92" t="n">
-        <v>16.5385783223796</v>
+        <v>-8.3050878393451</v>
       </c>
       <c r="I92" t="n">
-        <v>18.5935002187614</v>
+        <v>-9.29347433460677</v>
       </c>
       <c r="J92" t="n">
-        <v>-9.98434209785801</v>
+        <v>-9.28400358262529</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-4.78824312192096</v>
+        <v>-4.74900133557141</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.44037783633712</v>
+        <v>-5.6571670336143</v>
       </c>
       <c r="C93" t="n">
-        <v>-5.74806039759411</v>
+        <v>-5.70192657914251</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.3656255361805</v>
+        <v>-6.50973186493105</v>
       </c>
       <c r="E93" t="n">
-        <v>-6.95982342713271</v>
+        <v>13.7507010370275</v>
       </c>
       <c r="F93" t="n">
-        <v>-7.28292880373353</v>
+        <v>13.8175553747129</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.68804242679379</v>
+        <v>14.9407126272574</v>
       </c>
       <c r="H93" t="n">
-        <v>-8.48642184018601</v>
+        <v>17.7170488071749</v>
       </c>
       <c r="I93" t="n">
-        <v>-9.09025936495071</v>
+        <v>17.6076921141086</v>
       </c>
       <c r="J93" t="n">
-        <v>-9.55305986125075</v>
+        <v>19.5783417668687</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-4.80170041866105</v>
+        <v>8.97944875474327</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.29489757385338</v>
+        <v>10.2679321596306</v>
       </c>
       <c r="C94" t="n">
-        <v>-6.01494450775614</v>
+        <v>11.4642803944387</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.88850193477131</v>
+        <v>13.0864748055357</v>
       </c>
       <c r="E94" t="n">
-        <v>-6.92983072426547</v>
+        <v>14.0027158828653</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.76832853089767</v>
+        <v>14.6523466621733</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.43743581183215</v>
+        <v>14.3877656443061</v>
       </c>
       <c r="H94" t="n">
-        <v>-8.23882559503731</v>
+        <v>17.0143729877342</v>
       </c>
       <c r="I94" t="n">
-        <v>-9.46577627501944</v>
+        <v>17.1424798497988</v>
       </c>
       <c r="J94" t="n">
-        <v>-9.65554955545512</v>
+        <v>19.5423865590449</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.62422902558006</v>
+        <v>10.1447768967731</v>
       </c>
       <c r="B95" t="n">
-        <v>10.8667094047923</v>
+        <v>11.3887212128388</v>
       </c>
       <c r="C95" t="n">
-        <v>12.2198689950286</v>
+        <v>11.5152058683532</v>
       </c>
       <c r="D95" t="n">
-        <v>12.8461997981222</v>
+        <v>12.6851682871446</v>
       </c>
       <c r="E95" t="n">
-        <v>14.117554199211</v>
+        <v>13.9530063935934</v>
       </c>
       <c r="F95" t="n">
-        <v>15.7769495629841</v>
+        <v>14.3740966395985</v>
       </c>
       <c r="G95" t="n">
-        <v>17.5612547532761</v>
+        <v>16.0108067727212</v>
       </c>
       <c r="H95" t="n">
-        <v>17.6380734879657</v>
+        <v>16.298777762755</v>
       </c>
       <c r="I95" t="n">
-        <v>16.9788301885779</v>
+        <v>18.8419904511114</v>
       </c>
       <c r="J95" t="n">
-        <v>18.384214692034</v>
+        <v>18.9682598634842</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.51102316333012</v>
+        <v>9.8081703170228</v>
       </c>
       <c r="B96" t="n">
-        <v>11.2886986575393</v>
+        <v>10.9209946924119</v>
       </c>
       <c r="C96" t="n">
-        <v>11.8968426691606</v>
+        <v>11.3498169752877</v>
       </c>
       <c r="D96" t="n">
-        <v>12.8536120515207</v>
+        <v>-6.65400207545421</v>
       </c>
       <c r="E96" t="n">
-        <v>14.6367043659269</v>
+        <v>-6.9130666899432</v>
       </c>
       <c r="F96" t="n">
-        <v>15.0483373215848</v>
+        <v>-7.54566528594363</v>
       </c>
       <c r="G96" t="n">
-        <v>15.4742666525015</v>
+        <v>-8.33735776900768</v>
       </c>
       <c r="H96" t="n">
-        <v>17.0851910826389</v>
+        <v>-8.26384762811061</v>
       </c>
       <c r="I96" t="n">
-        <v>18.0630366317294</v>
+        <v>-9.3273113254314</v>
       </c>
       <c r="J96" t="n">
-        <v>19.1178307650328</v>
+        <v>-9.72057339561391</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-5.0564454666138</v>
+        <v>10.6854195644421</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.20545792235922</v>
+        <v>11.8744232866473</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.18245065880822</v>
+        <v>13.2964876068714</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.67909879344149</v>
+        <v>13.3698769450462</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.31714123031782</v>
+        <v>14.5914977006235</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.81004645036736</v>
+        <v>14.2776721081437</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.1326962431666</v>
+        <v>15.6259682676282</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.80966565123719</v>
+        <v>17.2307390015861</v>
       </c>
       <c r="I97" t="n">
-        <v>-8.89402389238297</v>
+        <v>17.4974469966492</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.47360818353898</v>
+        <v>19.3586880403985</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.0247523375837</v>
+        <v>-4.86942044528365</v>
       </c>
       <c r="B98" t="n">
-        <v>10.1157190724814</v>
+        <v>-5.59586334053288</v>
       </c>
       <c r="C98" t="n">
-        <v>13.9944153766239</v>
+        <v>-6.00773900306667</v>
       </c>
       <c r="D98" t="n">
-        <v>12.3640124396137</v>
+        <v>-6.47667940791991</v>
       </c>
       <c r="E98" t="n">
-        <v>14.0399496237767</v>
+        <v>-6.89988861457936</v>
       </c>
       <c r="F98" t="n">
-        <v>14.2882191088808</v>
+        <v>-7.53093130907441</v>
       </c>
       <c r="G98" t="n">
-        <v>17.9808135640878</v>
+        <v>-7.91616542233968</v>
       </c>
       <c r="H98" t="n">
-        <v>17.9596127377856</v>
+        <v>-8.51875586970477</v>
       </c>
       <c r="I98" t="n">
-        <v>17.3314522997598</v>
+        <v>-8.98234839817844</v>
       </c>
       <c r="J98" t="n">
-        <v>19.4704291871506</v>
+        <v>-9.62205967549962</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-5.12692067533838</v>
+        <v>-4.93652647143296</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.52546995569535</v>
+        <v>-5.43396676460713</v>
       </c>
       <c r="C99" t="n">
-        <v>-6.08900803810287</v>
+        <v>-5.768017546451</v>
       </c>
       <c r="D99" t="n">
-        <v>-6.73632388001295</v>
+        <v>-6.4333073498309</v>
       </c>
       <c r="E99" t="n">
-        <v>-6.9552177619703</v>
+        <v>-7.47504089105182</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.19907464301759</v>
+        <v>-7.21330015068952</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.24300046022534</v>
+        <v>-8.03116610507416</v>
       </c>
       <c r="H99" t="n">
-        <v>-8.78772397370243</v>
+        <v>-8.37504333842547</v>
       </c>
       <c r="I99" t="n">
-        <v>-8.6934175927343</v>
+        <v>-9.2325382461434</v>
       </c>
       <c r="J99" t="n">
-        <v>-9.21395108622755</v>
+        <v>-9.54725322373982</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-5.06201041998971</v>
+        <v>10.9643241580461</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.55209153233451</v>
+        <v>11.7410222764473</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.30896213767325</v>
+        <v>12.0483198675318</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.6460416709862</v>
+        <v>13.3826289739488</v>
       </c>
       <c r="E100" t="n">
-        <v>-7.24081514292913</v>
+        <v>12.9783547092499</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.39024507715617</v>
+        <v>15.6308466097597</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.79299879095901</v>
+        <v>16.9047575527544</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.37879944689164</v>
+        <v>17.1979868881635</v>
       </c>
       <c r="I100" t="n">
-        <v>-9.2901743769137</v>
+        <v>17.5297327216808</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.37152896505709</v>
+        <v>19.0418227993153</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-4.88389824697322</v>
+        <v>-5.01331554850019</v>
       </c>
       <c r="B101" t="n">
-        <v>-5.28041650164411</v>
+        <v>-5.78739256121524</v>
       </c>
       <c r="C101" t="n">
-        <v>-5.92476566176661</v>
+        <v>-6.15853495443731</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.69885891122322</v>
+        <v>-6.56634779493465</v>
       </c>
       <c r="E101" t="n">
-        <v>-7.07048749382032</v>
+        <v>-7.31199764016555</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.45083273874166</v>
+        <v>-7.43246859031197</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.92394983895515</v>
+        <v>-7.90724781027969</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.41885705721268</v>
+        <v>-8.71079979390927</v>
       </c>
       <c r="I101" t="n">
-        <v>-9.24955960869977</v>
+        <v>-9.13528650295551</v>
       </c>
       <c r="J101" t="n">
-        <v>-9.73437322647403</v>
+        <v>-9.74852458448545</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-5.1002405286882</v>
+        <v>10.9405597006772</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.9551728202524</v>
+        <v>10.2021634163122</v>
       </c>
       <c r="C102" t="n">
-        <v>-5.74521208218749</v>
+        <v>11.9680768431886</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.16485640224793</v>
+        <v>13.6344703319161</v>
       </c>
       <c r="E102" t="n">
-        <v>-6.86182698225581</v>
+        <v>14.1740286263047</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.85744184662515</v>
+        <v>15.597564871802</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.22081304002545</v>
+        <v>15.9774079028164</v>
       </c>
       <c r="H102" t="n">
-        <v>-8.42795886317905</v>
+        <v>-8.25480952182495</v>
       </c>
       <c r="I102" t="n">
-        <v>-9.19275105787552</v>
+        <v>-9.09937928549963</v>
       </c>
       <c r="J102" t="n">
-        <v>-9.6384902633014</v>
+        <v>-9.43416023098792</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.2772058771419</v>
+        <v>11.2211672425655</v>
       </c>
       <c r="B103" t="n">
-        <v>10.8270777446683</v>
+        <v>10.5116411807065</v>
       </c>
       <c r="C103" t="n">
-        <v>11.2645570935318</v>
+        <v>11.5544503548378</v>
       </c>
       <c r="D103" t="n">
-        <v>12.3780391717733</v>
+        <v>12.2708069551587</v>
       </c>
       <c r="E103" t="n">
-        <v>13.2981192140256</v>
+        <v>14.8062274928121</v>
       </c>
       <c r="F103" t="n">
-        <v>14.6612964115553</v>
+        <v>15.1469033166873</v>
       </c>
       <c r="G103" t="n">
-        <v>15.8131978762211</v>
+        <v>16.6406728947208</v>
       </c>
       <c r="H103" t="n">
-        <v>18.7908230742181</v>
+        <v>15.7539909265496</v>
       </c>
       <c r="I103" t="n">
-        <v>18.7646705710739</v>
+        <v>17.5060199641196</v>
       </c>
       <c r="J103" t="n">
-        <v>18.7814631712451</v>
+        <v>18.8716294645593</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.48951381744294</v>
+        <v>9.8502932986529</v>
       </c>
       <c r="B104" t="n">
-        <v>-5.24224370995831</v>
+        <v>10.6308612058199</v>
       </c>
       <c r="C104" t="n">
-        <v>-6.15276810063953</v>
+        <v>12.4309962105243</v>
       </c>
       <c r="D104" t="n">
-        <v>-6.54675340400436</v>
+        <v>12.1275726434299</v>
       </c>
       <c r="E104" t="n">
-        <v>-7.0176634241001</v>
+        <v>13.9185487607318</v>
       </c>
       <c r="F104" t="n">
-        <v>-7.64375450258627</v>
+        <v>14.5752561939344</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.79372427491076</v>
+        <v>16.2919308983961</v>
       </c>
       <c r="H104" t="n">
-        <v>-8.63787602924985</v>
+        <v>16.2941073126602</v>
       </c>
       <c r="I104" t="n">
-        <v>-9.35753291502336</v>
+        <v>17.9474734614436</v>
       </c>
       <c r="J104" t="n">
-        <v>-9.5165073136057</v>
+        <v>18.6888483660938</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.27446952501486</v>
+        <v>-4.7910734228185</v>
       </c>
       <c r="B105" t="n">
-        <v>11.2125265356943</v>
+        <v>-5.82753391510967</v>
       </c>
       <c r="C105" t="n">
-        <v>13.446756792013</v>
+        <v>-6.02782207196337</v>
       </c>
       <c r="D105" t="n">
-        <v>12.2556385629889</v>
+        <v>-6.46557374678598</v>
       </c>
       <c r="E105" t="n">
-        <v>13.1322271411815</v>
+        <v>-7.27377513484085</v>
       </c>
       <c r="F105" t="n">
-        <v>13.5522037578817</v>
+        <v>-7.3248245913656</v>
       </c>
       <c r="G105" t="n">
-        <v>16.5366673366045</v>
+        <v>-8.08586353411424</v>
       </c>
       <c r="H105" t="n">
-        <v>17.2942962612167</v>
+        <v>-8.45471426657782</v>
       </c>
       <c r="I105" t="n">
-        <v>17.8235027938716</v>
+        <v>-8.54492902029597</v>
       </c>
       <c r="J105" t="n">
-        <v>18.6883094595696</v>
+        <v>-9.54022733547591</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.21002446284652</v>
+        <v>10.0557733341469</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.69086227293525</v>
+        <v>9.79882692414832</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.63955787839152</v>
+        <v>11.6622730372037</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.28362618016077</v>
+        <v>13.0643041094114</v>
       </c>
       <c r="E106" t="n">
-        <v>-7.03800895381749</v>
+        <v>13.8442864176174</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.62066947823049</v>
+        <v>14.7898924362746</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.90097868718276</v>
+        <v>15.2298747834984</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.75214887771903</v>
+        <v>16.9434168831671</v>
       </c>
       <c r="I106" t="n">
-        <v>-9.32190120487323</v>
+        <v>-8.87738537204227</v>
       </c>
       <c r="J106" t="n">
-        <v>-9.19890632537624</v>
+        <v>-9.1857734671052</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.7703636786833</v>
+        <v>11.2282833830352</v>
       </c>
       <c r="B107" t="n">
-        <v>11.8064917357675</v>
+        <v>10.7284397834956</v>
       </c>
       <c r="C107" t="n">
-        <v>12.2579437081112</v>
+        <v>12.5601919820863</v>
       </c>
       <c r="D107" t="n">
-        <v>13.6248241245074</v>
+        <v>13.9804463801942</v>
       </c>
       <c r="E107" t="n">
-        <v>14.6323910918498</v>
+        <v>14.1993438608371</v>
       </c>
       <c r="F107" t="n">
-        <v>14.2251474563109</v>
+        <v>-7.81841083991205</v>
       </c>
       <c r="G107" t="n">
-        <v>16.6176858114363</v>
+        <v>-8.13287820266332</v>
       </c>
       <c r="H107" t="n">
-        <v>16.5057915455419</v>
+        <v>-8.12556686471561</v>
       </c>
       <c r="I107" t="n">
-        <v>17.6135184454753</v>
+        <v>-9.13643237202764</v>
       </c>
       <c r="J107" t="n">
-        <v>19.0329278843551</v>
+        <v>-9.59684356074398</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.18393806189256</v>
+        <v>10.8717523356539</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.37649819781196</v>
+        <v>10.3877697044471</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.62547235853494</v>
+        <v>11.7080502713434</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.63205878428164</v>
+        <v>13.2839689881081</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.29688269189966</v>
+        <v>15.6315339922709</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.80854550042633</v>
+        <v>15.2749266228422</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.25285356910683</v>
+        <v>16.2456605202839</v>
       </c>
       <c r="H108" t="n">
-        <v>-8.11582457673148</v>
+        <v>17.4150345375105</v>
       </c>
       <c r="I108" t="n">
-        <v>-9.26112869749172</v>
+        <v>17.7501523064911</v>
       </c>
       <c r="J108" t="n">
-        <v>-9.25006499146088</v>
+        <v>19.5823440404279</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.85535206738761</v>
+        <v>10.1451042582264</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.37097871183115</v>
+        <v>10.8487768202395</v>
       </c>
       <c r="C109" t="n">
-        <v>-6.43281300720085</v>
+        <v>10.7039023899204</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.32582319250342</v>
+        <v>13.2357940412939</v>
       </c>
       <c r="E109" t="n">
-        <v>-6.83639822265375</v>
+        <v>14.8201353627206</v>
       </c>
       <c r="F109" t="n">
-        <v>-7.62385731314232</v>
+        <v>14.1006844841778</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.37151027031718</v>
+        <v>17.0619411597926</v>
       </c>
       <c r="H109" t="n">
-        <v>-8.72892849577934</v>
+        <v>16.4517682635596</v>
       </c>
       <c r="I109" t="n">
-        <v>-8.80291042730518</v>
+        <v>18.6752141818172</v>
       </c>
       <c r="J109" t="n">
-        <v>18.4825675491121</v>
+        <v>17.5738750808045</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.64323470580665</v>
+        <v>-4.74105047943346</v>
       </c>
       <c r="B110" t="n">
-        <v>10.4755169900597</v>
+        <v>-5.32101609761387</v>
       </c>
       <c r="C110" t="n">
-        <v>12.7564499133677</v>
+        <v>-6.23618434756666</v>
       </c>
       <c r="D110" t="n">
-        <v>14.1015415442606</v>
+        <v>-6.51076679711363</v>
       </c>
       <c r="E110" t="n">
-        <v>13.1335731773444</v>
+        <v>-7.30304973541414</v>
       </c>
       <c r="F110" t="n">
-        <v>13.6204467128104</v>
+        <v>-7.35758643413406</v>
       </c>
       <c r="G110" t="n">
-        <v>16.39715207391</v>
+        <v>-8.45657101291166</v>
       </c>
       <c r="H110" t="n">
-        <v>17.5267627630845</v>
+        <v>-8.58511448880942</v>
       </c>
       <c r="I110" t="n">
-        <v>17.8792279399695</v>
+        <v>-9.09748647406799</v>
       </c>
       <c r="J110" t="n">
-        <v>19.9098830921402</v>
+        <v>-9.41716826632306</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.6549153815946</v>
+        <v>10.7671805405624</v>
       </c>
       <c r="B111" t="n">
-        <v>11.4891824613802</v>
+        <v>11.1323439230234</v>
       </c>
       <c r="C111" t="n">
-        <v>11.7312049547566</v>
+        <v>11.5559538416025</v>
       </c>
       <c r="D111" t="n">
-        <v>13.84254330525</v>
+        <v>13.1290719367563</v>
       </c>
       <c r="E111" t="n">
-        <v>14.0383179608507</v>
+        <v>-7.11426200548879</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.57525071602555</v>
+        <v>-7.29229712373161</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.17189149925196</v>
+        <v>-7.92464483950469</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.72017098963253</v>
+        <v>-8.88680487858522</v>
       </c>
       <c r="I111" t="n">
-        <v>-9.00445335769142</v>
+        <v>-9.12661795781664</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.45568741962092</v>
+        <v>-9.26565651994902</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.0740784805267</v>
+        <v>10.1147051147558</v>
       </c>
       <c r="B112" t="n">
-        <v>9.91468840044921</v>
+        <v>11.4105540976212</v>
       </c>
       <c r="C112" t="n">
-        <v>12.5718773314869</v>
+        <v>12.3058677544515</v>
       </c>
       <c r="D112" t="n">
-        <v>13.2010845353528</v>
+        <v>13.5111388431339</v>
       </c>
       <c r="E112" t="n">
-        <v>15.0764419027834</v>
+        <v>14.0977072886078</v>
       </c>
       <c r="F112" t="n">
-        <v>14.7405642473417</v>
+        <v>14.7637596689747</v>
       </c>
       <c r="G112" t="n">
-        <v>15.8273663177292</v>
+        <v>16.127601857416</v>
       </c>
       <c r="H112" t="n">
-        <v>18.5476050808064</v>
+        <v>17.9843738484395</v>
       </c>
       <c r="I112" t="n">
-        <v>17.5945392946876</v>
+        <v>16.9412860754021</v>
       </c>
       <c r="J112" t="n">
-        <v>18.3172557661743</v>
+        <v>19.3437820929023</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.76547720402091</v>
+        <v>8.98237019310619</v>
       </c>
       <c r="B113" t="n">
-        <v>10.6876077364034</v>
+        <v>11.651546476407</v>
       </c>
       <c r="C113" t="n">
-        <v>11.8909064551313</v>
+        <v>11.1096168951963</v>
       </c>
       <c r="D113" t="n">
-        <v>12.0026544696215</v>
+        <v>13.6111856734187</v>
       </c>
       <c r="E113" t="n">
-        <v>13.9577621749661</v>
+        <v>13.8864613339586</v>
       </c>
       <c r="F113" t="n">
-        <v>15.2366347410713</v>
+        <v>15.0011387770293</v>
       </c>
       <c r="G113" t="n">
-        <v>14.4527523812819</v>
+        <v>16.5905924021623</v>
       </c>
       <c r="H113" t="n">
-        <v>16.4729905738084</v>
+        <v>16.131173725024</v>
       </c>
       <c r="I113" t="n">
-        <v>16.2035238100129</v>
+        <v>18.1167808927866</v>
       </c>
       <c r="J113" t="n">
-        <v>18.9320116424682</v>
+        <v>19.4706692667873</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-4.94758591225888</v>
+        <v>10.4009199610275</v>
       </c>
       <c r="B114" t="n">
-        <v>-5.8561090812246</v>
+        <v>12.2147977428345</v>
       </c>
       <c r="C114" t="n">
-        <v>-6.35601438487586</v>
+        <v>11.7260413642193</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.12420794653166</v>
+        <v>13.5286019837592</v>
       </c>
       <c r="E114" t="n">
-        <v>-6.86562300030115</v>
+        <v>13.1927871228976</v>
       </c>
       <c r="F114" t="n">
-        <v>-7.86431766580234</v>
+        <v>15.7341974766899</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.2387677380256</v>
+        <v>17.031556058047</v>
       </c>
       <c r="H114" t="n">
-        <v>-8.53674287366774</v>
+        <v>17.9788230487826</v>
       </c>
       <c r="I114" t="n">
-        <v>-9.25312692354606</v>
+        <v>-8.68673186324524</v>
       </c>
       <c r="J114" t="n">
-        <v>-9.43152347274349</v>
+        <v>-8.93551382114064</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.99285712700595</v>
+        <v>-4.94589445296818</v>
       </c>
       <c r="B115" t="n">
-        <v>12.1717535076661</v>
+        <v>-5.49274548940272</v>
       </c>
       <c r="C115" t="n">
-        <v>11.8652750814075</v>
+        <v>-5.96152464920871</v>
       </c>
       <c r="D115" t="n">
-        <v>12.7967427948857</v>
+        <v>-6.68283585001171</v>
       </c>
       <c r="E115" t="n">
-        <v>-6.66554802713918</v>
+        <v>-7.10050152228583</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.0702804894391</v>
+        <v>-7.79657204962596</v>
       </c>
       <c r="G115" t="n">
-        <v>-8.41368924404122</v>
+        <v>-7.96840207162125</v>
       </c>
       <c r="H115" t="n">
-        <v>-7.9798534451429</v>
+        <v>-8.70274584196635</v>
       </c>
       <c r="I115" t="n">
-        <v>-9.4221558414556</v>
+        <v>-9.20766426158995</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.68710964196801</v>
+        <v>-9.20625693921616</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.25125852222529</v>
+        <v>-4.86462612203103</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.29956050298309</v>
+        <v>-5.85963469765029</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.3788897835315</v>
+        <v>-5.67648281143371</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.30048805978175</v>
+        <v>-6.09048058986949</v>
       </c>
       <c r="E116" t="n">
-        <v>-6.96771687471487</v>
+        <v>-6.87823194208056</v>
       </c>
       <c r="F116" t="n">
-        <v>-7.43045850859852</v>
+        <v>-6.96780884740854</v>
       </c>
       <c r="G116" t="n">
-        <v>-8.4853872480935</v>
+        <v>-8.24807124966478</v>
       </c>
       <c r="H116" t="n">
-        <v>-8.30233795311431</v>
+        <v>-8.63743293775626</v>
       </c>
       <c r="I116" t="n">
-        <v>-9.21454820333971</v>
+        <v>-9.15972993299301</v>
       </c>
       <c r="J116" t="n">
-        <v>-10.0077842000052</v>
+        <v>-9.20034817626328</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10.4426574539322</v>
+        <v>-5.33686387499033</v>
       </c>
       <c r="B117" t="n">
-        <v>10.5075616084656</v>
+        <v>-5.26074821123927</v>
       </c>
       <c r="C117" t="n">
-        <v>11.8630053275208</v>
+        <v>-5.80921440864055</v>
       </c>
       <c r="D117" t="n">
-        <v>14.8118292400974</v>
+        <v>-6.10274870070951</v>
       </c>
       <c r="E117" t="n">
-        <v>13.5881411406907</v>
+        <v>-7.16535705295773</v>
       </c>
       <c r="F117" t="n">
-        <v>14.35581071193</v>
+        <v>-7.20391697121894</v>
       </c>
       <c r="G117" t="n">
-        <v>17.1773592661137</v>
+        <v>-8.12610364504269</v>
       </c>
       <c r="H117" t="n">
-        <v>17.6712755256769</v>
+        <v>-8.54988264861786</v>
       </c>
       <c r="I117" t="n">
-        <v>18.0785768990057</v>
+        <v>-9.02839747428727</v>
       </c>
       <c r="J117" t="n">
-        <v>19.6724971031143</v>
+        <v>-9.51110470781558</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.4856735503559</v>
+        <v>-5.2780192507523</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.99043623190668</v>
+        <v>-5.51754563485054</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.98287464711565</v>
+        <v>-6.14254615150493</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.18115078839105</v>
+        <v>-6.55846556617371</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.02460174549535</v>
+        <v>-7.04827405523407</v>
       </c>
       <c r="F118" t="n">
-        <v>-7.47434019595684</v>
+        <v>-7.22214715936186</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.18760286973755</v>
+        <v>-7.78168672357455</v>
       </c>
       <c r="H118" t="n">
-        <v>-8.80567059521442</v>
+        <v>-8.38726032699842</v>
       </c>
       <c r="I118" t="n">
-        <v>-8.98575946424065</v>
+        <v>-8.96245954492168</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.26690684659206</v>
+        <v>-9.21573986301829</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.97830467989982</v>
+        <v>-4.7880981570749</v>
       </c>
       <c r="B119" t="n">
-        <v>9.62971971528014</v>
+        <v>-5.57579030605139</v>
       </c>
       <c r="C119" t="n">
-        <v>11.9972786150023</v>
+        <v>-6.44911277555388</v>
       </c>
       <c r="D119" t="n">
-        <v>13.4786972388638</v>
+        <v>-6.5155717400144</v>
       </c>
       <c r="E119" t="n">
-        <v>-6.73735139597053</v>
+        <v>-7.13513234884662</v>
       </c>
       <c r="F119" t="n">
-        <v>-7.25635058621583</v>
+        <v>-7.55927861635106</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.52467334008393</v>
+        <v>-8.46006214029619</v>
       </c>
       <c r="H119" t="n">
-        <v>-8.45885834870398</v>
+        <v>-8.64162596524042</v>
       </c>
       <c r="I119" t="n">
-        <v>-8.87155632855602</v>
+        <v>-9.07773238351441</v>
       </c>
       <c r="J119" t="n">
-        <v>-9.47321856847664</v>
+        <v>-9.57081628335589</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.3193348915302</v>
+        <v>-4.87558230195002</v>
       </c>
       <c r="B120" t="n">
-        <v>10.2138297496778</v>
+        <v>-5.68657999759521</v>
       </c>
       <c r="C120" t="n">
-        <v>11.4641209642669</v>
+        <v>-6.02866813190701</v>
       </c>
       <c r="D120" t="n">
-        <v>13.4841056177203</v>
+        <v>-6.22853904072281</v>
       </c>
       <c r="E120" t="n">
-        <v>13.7590846176359</v>
+        <v>-6.83600105070438</v>
       </c>
       <c r="F120" t="n">
-        <v>14.8545581862341</v>
+        <v>-7.65678146947487</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.9308759790245</v>
+        <v>-8.2370959690727</v>
       </c>
       <c r="H120" t="n">
-        <v>-8.03466053247389</v>
+        <v>-9.01422843764631</v>
       </c>
       <c r="I120" t="n">
-        <v>-9.25390702986265</v>
+        <v>-9.23356117965054</v>
       </c>
       <c r="J120" t="n">
-        <v>-9.75661255034069</v>
+        <v>-9.45890206244237</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.8266483727364</v>
+        <v>9.12124878511671</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.93826303266128</v>
+        <v>11.1698781250683</v>
       </c>
       <c r="C121" t="n">
-        <v>-5.52074670540201</v>
+        <v>12.0152005148296</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.06020919214602</v>
+        <v>13.1303460277384</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.77383157568688</v>
+        <v>12.7062864498555</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.12627369899301</v>
+        <v>14.1391900942323</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.45622324773947</v>
+        <v>15.2410827609549</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.52275134430629</v>
+        <v>-8.97299883383526</v>
       </c>
       <c r="I121" t="n">
-        <v>-8.72778319995581</v>
+        <v>-9.00310088276731</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.43004839740676</v>
+        <v>-9.68797501016868</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.3352772814103</v>
+        <v>10.1515764081371</v>
       </c>
       <c r="B122" t="n">
-        <v>11.3710023177612</v>
+        <v>11.5512312128317</v>
       </c>
       <c r="C122" t="n">
-        <v>12.0769664038495</v>
+        <v>11.6975906345465</v>
       </c>
       <c r="D122" t="n">
-        <v>13.3178796617544</v>
+        <v>12.7090892715293</v>
       </c>
       <c r="E122" t="n">
-        <v>13.9782283769403</v>
+        <v>13.3881627850653</v>
       </c>
       <c r="F122" t="n">
-        <v>13.1943541904924</v>
+        <v>16.0724572722538</v>
       </c>
       <c r="G122" t="n">
-        <v>16.4699064409386</v>
+        <v>16.9853454746158</v>
       </c>
       <c r="H122" t="n">
-        <v>15.6872727426564</v>
+        <v>17.3754488792126</v>
       </c>
       <c r="I122" t="n">
-        <v>19.0592773062269</v>
+        <v>17.8948734580953</v>
       </c>
       <c r="J122" t="n">
-        <v>18.8625334719208</v>
+        <v>18.5106690577061</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.2778114034667</v>
+        <v>9.36786026581358</v>
       </c>
       <c r="B123" t="n">
-        <v>10.8459057974209</v>
+        <v>-5.23623873844657</v>
       </c>
       <c r="C123" t="n">
-        <v>12.2554749272903</v>
+        <v>-6.05706905965719</v>
       </c>
       <c r="D123" t="n">
-        <v>13.0111581867215</v>
+        <v>-6.38554454652041</v>
       </c>
       <c r="E123" t="n">
-        <v>12.4951251846004</v>
+        <v>-6.65981302824381</v>
       </c>
       <c r="F123" t="n">
-        <v>13.4525319146724</v>
+        <v>-7.42584891997237</v>
       </c>
       <c r="G123" t="n">
-        <v>15.7913592813188</v>
+        <v>-7.66899922337991</v>
       </c>
       <c r="H123" t="n">
-        <v>17.4005904817389</v>
+        <v>-8.29641477152648</v>
       </c>
       <c r="I123" t="n">
-        <v>18.2503633648129</v>
+        <v>-8.89440046893788</v>
       </c>
       <c r="J123" t="n">
-        <v>19.3805500343569</v>
+        <v>-8.97182727647881</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.7757940013456</v>
+        <v>10.8235003017908</v>
       </c>
       <c r="B124" t="n">
-        <v>11.196490593186</v>
+        <v>-5.48490633490226</v>
       </c>
       <c r="C124" t="n">
-        <v>-6.16193196219739</v>
+        <v>-6.53490082927547</v>
       </c>
       <c r="D124" t="n">
-        <v>-6.51005120656591</v>
+        <v>-6.33671478354814</v>
       </c>
       <c r="E124" t="n">
-        <v>-7.00355352489991</v>
+        <v>-6.54824279526629</v>
       </c>
       <c r="F124" t="n">
-        <v>-8.10165445277137</v>
+        <v>-7.52805207675756</v>
       </c>
       <c r="G124" t="n">
-        <v>-8.33015917866009</v>
+        <v>-7.82329014103426</v>
       </c>
       <c r="H124" t="n">
-        <v>-8.04499037909806</v>
+        <v>-8.60891261949692</v>
       </c>
       <c r="I124" t="n">
-        <v>-8.79587051566431</v>
+        <v>-8.89572740841429</v>
       </c>
       <c r="J124" t="n">
-        <v>-9.63684646171132</v>
+        <v>-9.16565419908392</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.96087983174738</v>
+        <v>9.33273483747873</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.21763233081493</v>
+        <v>10.5068491789463</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.90596251091518</v>
+        <v>12.4944023920793</v>
       </c>
       <c r="D125" t="n">
-        <v>-6.17825712325472</v>
+        <v>12.7666260801022</v>
       </c>
       <c r="E125" t="n">
-        <v>-6.99677697907155</v>
+        <v>13.3889618196654</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.1795799923547</v>
+        <v>15.9612125630529</v>
       </c>
       <c r="G125" t="n">
-        <v>-8.26446663560258</v>
+        <v>15.7931246741301</v>
       </c>
       <c r="H125" t="n">
-        <v>-8.34113116008557</v>
+        <v>17.3057250750146</v>
       </c>
       <c r="I125" t="n">
-        <v>-8.79768340157683</v>
+        <v>16.8493731360264</v>
       </c>
       <c r="J125" t="n">
-        <v>19.9313593132797</v>
+        <v>18.5393684113544</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.86597437688581</v>
+        <v>10.2321403060916</v>
       </c>
       <c r="B126" t="n">
-        <v>-5.32372768279847</v>
+        <v>11.3482931955989</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.79286050675982</v>
+        <v>11.1574607825544</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.61828641455674</v>
+        <v>13.0607836360796</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.92832074396659</v>
+        <v>15.2035045093483</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.70663295245717</v>
+        <v>14.7789938735719</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.69296911230314</v>
+        <v>16.1014533634777</v>
       </c>
       <c r="H126" t="n">
-        <v>-8.54885583657089</v>
+        <v>17.4495618987752</v>
       </c>
       <c r="I126" t="n">
-        <v>-9.06042576977951</v>
+        <v>17.5819840704129</v>
       </c>
       <c r="J126" t="n">
-        <v>-9.39108599627591</v>
+        <v>19.0789657047324</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.41352688849241</v>
+        <v>8.98819088447126</v>
       </c>
       <c r="B127" t="n">
-        <v>10.4229415609065</v>
+        <v>9.99493928349506</v>
       </c>
       <c r="C127" t="n">
-        <v>12.0265970396588</v>
+        <v>13.1111268064383</v>
       </c>
       <c r="D127" t="n">
-        <v>12.3870573249395</v>
+        <v>12.6124081387371</v>
       </c>
       <c r="E127" t="n">
-        <v>14.8505255238308</v>
+        <v>15.0701429415106</v>
       </c>
       <c r="F127" t="n">
-        <v>14.2642473133829</v>
+        <v>15.981186255939</v>
       </c>
       <c r="G127" t="n">
-        <v>16.623758208936</v>
+        <v>16.8003137551012</v>
       </c>
       <c r="H127" t="n">
-        <v>16.9328853949486</v>
+        <v>18.0957102850261</v>
       </c>
       <c r="I127" t="n">
-        <v>18.5624197777509</v>
+        <v>18.2671418655637</v>
       </c>
       <c r="J127" t="n">
-        <v>19.5343325923627</v>
+        <v>18.7627715048204</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>11.0690388041475</v>
+        <v>-4.98785743608093</v>
       </c>
       <c r="B128" t="n">
-        <v>9.90423574789722</v>
+        <v>-5.54082508638166</v>
       </c>
       <c r="C128" t="n">
-        <v>11.6498636627514</v>
+        <v>-6.31905232350344</v>
       </c>
       <c r="D128" t="n">
-        <v>11.7777234908535</v>
+        <v>-6.56229275814946</v>
       </c>
       <c r="E128" t="n">
-        <v>15.1164519005755</v>
+        <v>-6.63210288627975</v>
       </c>
       <c r="F128" t="n">
-        <v>14.1256344025592</v>
+        <v>-7.54186134251735</v>
       </c>
       <c r="G128" t="n">
-        <v>16.4195788490599</v>
+        <v>-8.02575246920473</v>
       </c>
       <c r="H128" t="n">
-        <v>18.1211735632124</v>
+        <v>-8.51341745229599</v>
       </c>
       <c r="I128" t="n">
-        <v>18.3036833694187</v>
+        <v>-9.23669426633853</v>
       </c>
       <c r="J128" t="n">
-        <v>20.0627569800218</v>
+        <v>-9.6616528316618</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.3885421400757</v>
+        <v>9.54309198173484</v>
       </c>
       <c r="B129" t="n">
-        <v>11.1993679027129</v>
+        <v>11.0373009020766</v>
       </c>
       <c r="C129" t="n">
-        <v>13.4925503370111</v>
+        <v>-6.17362742459492</v>
       </c>
       <c r="D129" t="n">
-        <v>12.1226127828603</v>
+        <v>-6.51151684564525</v>
       </c>
       <c r="E129" t="n">
-        <v>12.4792937051916</v>
+        <v>-6.57428435611919</v>
       </c>
       <c r="F129" t="n">
-        <v>14.1278169863166</v>
+        <v>-7.30168151764042</v>
       </c>
       <c r="G129" t="n">
-        <v>15.7052428395988</v>
+        <v>-7.87504077103878</v>
       </c>
       <c r="H129" t="n">
-        <v>16.5111756746401</v>
+        <v>-8.65945622254804</v>
       </c>
       <c r="I129" t="n">
-        <v>16.9230184386859</v>
+        <v>-8.81580535535699</v>
       </c>
       <c r="J129" t="n">
-        <v>19.0159112828174</v>
+        <v>-9.64076906231372</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.2036855273964</v>
+        <v>10.4908584028764</v>
       </c>
       <c r="B130" t="n">
-        <v>12.1066609343028</v>
+        <v>11.1807865350741</v>
       </c>
       <c r="C130" t="n">
-        <v>11.8239064044076</v>
+        <v>11.7215107504172</v>
       </c>
       <c r="D130" t="n">
-        <v>11.7948977193932</v>
+        <v>12.7994278747628</v>
       </c>
       <c r="E130" t="n">
-        <v>13.3227418519239</v>
+        <v>13.6874143407659</v>
       </c>
       <c r="F130" t="n">
-        <v>14.7132331977069</v>
+        <v>13.5872385536242</v>
       </c>
       <c r="G130" t="n">
-        <v>-7.84313938922106</v>
+        <v>15.83359758905</v>
       </c>
       <c r="H130" t="n">
-        <v>-8.71599997675924</v>
+        <v>16.7777136322947</v>
       </c>
       <c r="I130" t="n">
-        <v>-8.65507529393276</v>
+        <v>18.3276084968501</v>
       </c>
       <c r="J130" t="n">
-        <v>-9.58267914722837</v>
+        <v>18.7011099754326</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-4.84417219974438</v>
+        <v>9.63375177545045</v>
       </c>
       <c r="B131" t="n">
-        <v>-5.58475494560547</v>
+        <v>10.7664266365676</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.00689743456668</v>
+        <v>10.7520780777302</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.42577787058056</v>
+        <v>11.9544832862316</v>
       </c>
       <c r="E131" t="n">
-        <v>-6.42077625443923</v>
+        <v>15.2560152296495</v>
       </c>
       <c r="F131" t="n">
-        <v>-7.05566952709037</v>
+        <v>14.2993274531338</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.67548932395627</v>
+        <v>16.8750798984676</v>
       </c>
       <c r="H131" t="n">
-        <v>-8.40926656422044</v>
+        <v>17.7748957031403</v>
       </c>
       <c r="I131" t="n">
-        <v>-9.11409318248883</v>
+        <v>17.6424271794235</v>
       </c>
       <c r="J131" t="n">
-        <v>-9.56007499114497</v>
+        <v>-9.60637802929923</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.7933610095929</v>
+        <v>-4.67969664585339</v>
       </c>
       <c r="B132" t="n">
-        <v>11.5843643136883</v>
+        <v>-5.28889182773852</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.51982668433145</v>
+        <v>-6.04251597751522</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.77060866806604</v>
+        <v>-6.50796922841602</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.27963767660394</v>
+        <v>-7.03491193552748</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.70515212341499</v>
+        <v>-7.26933072273391</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.95082171210497</v>
+        <v>-7.91905299007717</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.84980657997835</v>
+        <v>-8.41898911814525</v>
       </c>
       <c r="I132" t="n">
-        <v>-8.78622635376124</v>
+        <v>-9.3044885421928</v>
       </c>
       <c r="J132" t="n">
-        <v>-10.1161643970058</v>
+        <v>-9.86026075650222</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.95906592921902</v>
+        <v>10.6547855418567</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.71602442257199</v>
+        <v>11.0136886030194</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.6521087669262</v>
+        <v>11.7209630731724</v>
       </c>
       <c r="D133" t="n">
-        <v>-7.00212254198641</v>
+        <v>13.0527335398319</v>
       </c>
       <c r="E133" t="n">
-        <v>-7.06381211530186</v>
+        <v>13.8212112860602</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.81307045260341</v>
+        <v>14.0505534978378</v>
       </c>
       <c r="G133" t="n">
-        <v>-8.33850432996282</v>
+        <v>15.4190304822082</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.08221903924693</v>
+        <v>17.1070312730873</v>
       </c>
       <c r="I133" t="n">
-        <v>-9.1264104149659</v>
+        <v>18.4352442569089</v>
       </c>
       <c r="J133" t="n">
-        <v>-9.64065384389686</v>
+        <v>17.9321494230788</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.15648129344407</v>
+        <v>-4.7614761294199</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.52391496194673</v>
+        <v>-5.28931845651537</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.17413820661877</v>
+        <v>-5.2893032123427</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.81674274209061</v>
+        <v>-6.60864264745263</v>
       </c>
       <c r="E134" t="n">
-        <v>-6.95223258152617</v>
+        <v>-7.00214570006056</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.59192755924362</v>
+        <v>-7.53217537979565</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.9530628961831</v>
+        <v>-8.20622327117451</v>
       </c>
       <c r="H134" t="n">
-        <v>-9.01498138814382</v>
+        <v>-8.71475060241749</v>
       </c>
       <c r="I134" t="n">
-        <v>-8.82260777058323</v>
+        <v>-8.75343328627839</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.05685037506978</v>
+        <v>-9.5563773491105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.28994431670608</v>
+        <v>9.45725813863063</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.73378370192</v>
+        <v>11.6083837824609</v>
       </c>
       <c r="C135" t="n">
-        <v>-5.62581606261097</v>
+        <v>11.0446647912578</v>
       </c>
       <c r="D135" t="n">
-        <v>-7.02678540881641</v>
+        <v>12.1703448981242</v>
       </c>
       <c r="E135" t="n">
-        <v>-7.14341827562637</v>
+        <v>12.4807803954975</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.84214551105198</v>
+        <v>13.9997406044835</v>
       </c>
       <c r="G135" t="n">
-        <v>-8.16976505725891</v>
+        <v>15.805031184765</v>
       </c>
       <c r="H135" t="n">
-        <v>-8.71111445821582</v>
+        <v>17.9809880924699</v>
       </c>
       <c r="I135" t="n">
-        <v>-8.46003456039705</v>
+        <v>18.4910686148467</v>
       </c>
       <c r="J135" t="n">
-        <v>-9.04981969543805</v>
+        <v>-9.55130118717255</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.54429724082247</v>
+        <v>8.91156278170027</v>
       </c>
       <c r="B136" t="n">
-        <v>10.3187455902027</v>
+        <v>10.5359938792312</v>
       </c>
       <c r="C136" t="n">
-        <v>11.3956112262582</v>
+        <v>12.3263764308413</v>
       </c>
       <c r="D136" t="n">
-        <v>13.6353645746758</v>
+        <v>12.6491290327059</v>
       </c>
       <c r="E136" t="n">
-        <v>13.9638196630623</v>
+        <v>14.3166531263134</v>
       </c>
       <c r="F136" t="n">
-        <v>13.7555283024563</v>
+        <v>14.0504045802548</v>
       </c>
       <c r="G136" t="n">
-        <v>14.6719741153896</v>
+        <v>17.0131177404867</v>
       </c>
       <c r="H136" t="n">
-        <v>17.1343222941551</v>
+        <v>17.2419796217273</v>
       </c>
       <c r="I136" t="n">
-        <v>18.6559630396893</v>
+        <v>16.5841349652608</v>
       </c>
       <c r="J136" t="n">
-        <v>18.5290231599222</v>
+        <v>19.5108304894184</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-5.09694810492464</v>
+        <v>-5.08265126387101</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.35542754045823</v>
+        <v>-5.61635984343867</v>
       </c>
       <c r="C137" t="n">
-        <v>-6.12299545551149</v>
+        <v>-6.14377002185517</v>
       </c>
       <c r="D137" t="n">
-        <v>-6.35971829977461</v>
+        <v>-6.26163707185401</v>
       </c>
       <c r="E137" t="n">
-        <v>-6.95751924912072</v>
+        <v>-6.8943777483508</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.42112486390882</v>
+        <v>-7.91828889771472</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.95867729076586</v>
+        <v>-7.9065810786817</v>
       </c>
       <c r="H137" t="n">
-        <v>-7.95806146422117</v>
+        <v>-8.48576770884064</v>
       </c>
       <c r="I137" t="n">
-        <v>-8.60309589562042</v>
+        <v>-8.98783746402168</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.39871110076495</v>
+        <v>18.7874175773582</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.0247253078042</v>
+        <v>9.63763479960593</v>
       </c>
       <c r="B138" t="n">
-        <v>10.4042990148269</v>
+        <v>10.4973450117926</v>
       </c>
       <c r="C138" t="n">
-        <v>11.1545173812902</v>
+        <v>11.8739014275133</v>
       </c>
       <c r="D138" t="n">
-        <v>13.1443304074058</v>
+        <v>12.626980765474</v>
       </c>
       <c r="E138" t="n">
-        <v>14.0603867279004</v>
+        <v>13.1354598662072</v>
       </c>
       <c r="F138" t="n">
-        <v>15.8311911382057</v>
+        <v>14.8869219365604</v>
       </c>
       <c r="G138" t="n">
-        <v>14.1915318547133</v>
+        <v>15.4070572823661</v>
       </c>
       <c r="H138" t="n">
-        <v>18.1371712291503</v>
+        <v>16.4598907124861</v>
       </c>
       <c r="I138" t="n">
-        <v>19.3779287136214</v>
+        <v>18.5799668880154</v>
       </c>
       <c r="J138" t="n">
-        <v>19.1951285909249</v>
+        <v>-9.78928843409375</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.75421023489685</v>
+        <v>9.97092630919207</v>
       </c>
       <c r="B139" t="n">
-        <v>11.299167313187</v>
+        <v>10.5981489394453</v>
       </c>
       <c r="C139" t="n">
-        <v>11.6890556891693</v>
+        <v>-6.02298652219357</v>
       </c>
       <c r="D139" t="n">
-        <v>11.9007206110688</v>
+        <v>-6.50779249899421</v>
       </c>
       <c r="E139" t="n">
-        <v>13.6424120122612</v>
+        <v>-7.03850846154517</v>
       </c>
       <c r="F139" t="n">
-        <v>14.089894123805</v>
+        <v>-7.48586967940441</v>
       </c>
       <c r="G139" t="n">
-        <v>16.4690561370491</v>
+        <v>-7.93251171724837</v>
       </c>
       <c r="H139" t="n">
-        <v>16.8342829585629</v>
+        <v>-8.49727653489483</v>
       </c>
       <c r="I139" t="n">
-        <v>18.2908289990043</v>
+        <v>-8.96157063491565</v>
       </c>
       <c r="J139" t="n">
-        <v>18.9677315943462</v>
+        <v>-9.17743944509792</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.2778587782266</v>
+        <v>-5.51858069917833</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.54385128340081</v>
+        <v>-5.09286383479927</v>
       </c>
       <c r="C140" t="n">
-        <v>11.8635936032087</v>
+        <v>-5.99074510710839</v>
       </c>
       <c r="D140" t="n">
-        <v>14.4768605449232</v>
+        <v>-6.79562645280939</v>
       </c>
       <c r="E140" t="n">
-        <v>14.3682934438098</v>
+        <v>-7.04996151548623</v>
       </c>
       <c r="F140" t="n">
-        <v>14.6685652141949</v>
+        <v>-7.74983850214636</v>
       </c>
       <c r="G140" t="n">
-        <v>16.5122631657737</v>
+        <v>-7.84004989526451</v>
       </c>
       <c r="H140" t="n">
-        <v>17.6846887054871</v>
+        <v>-8.20323974160399</v>
       </c>
       <c r="I140" t="n">
-        <v>17.6751028702317</v>
+        <v>-8.86603918046377</v>
       </c>
       <c r="J140" t="n">
-        <v>19.3006841902217</v>
+        <v>-9.56397929043059</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.28285985648973</v>
+        <v>10.1162311487007</v>
       </c>
       <c r="B141" t="n">
-        <v>11.5849368932036</v>
+        <v>11.1479634119296</v>
       </c>
       <c r="C141" t="n">
-        <v>12.7482315944948</v>
+        <v>12.0720973840293</v>
       </c>
       <c r="D141" t="n">
-        <v>12.3714396293974</v>
+        <v>13.215903298169</v>
       </c>
       <c r="E141" t="n">
-        <v>14.2187894807574</v>
+        <v>14.1148224224865</v>
       </c>
       <c r="F141" t="n">
-        <v>15.3431186087715</v>
+        <v>15.4051826204407</v>
       </c>
       <c r="G141" t="n">
-        <v>15.5083016362594</v>
+        <v>15.2131796883866</v>
       </c>
       <c r="H141" t="n">
-        <v>17.4888543354198</v>
+        <v>15.7088762530528</v>
       </c>
       <c r="I141" t="n">
-        <v>18.922785753837</v>
+        <v>18.1035585209622</v>
       </c>
       <c r="J141" t="n">
-        <v>-9.76968092639144</v>
+        <v>18.0858394795181</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.5129208081073</v>
+        <v>11.1419020414452</v>
       </c>
       <c r="B142" t="n">
-        <v>11.3291262960789</v>
+        <v>10.8668399056539</v>
       </c>
       <c r="C142" t="n">
-        <v>12.1197487583133</v>
+        <v>12.2249542943196</v>
       </c>
       <c r="D142" t="n">
-        <v>11.8149610453711</v>
+        <v>13.8272202751133</v>
       </c>
       <c r="E142" t="n">
-        <v>14.720451229474</v>
+        <v>13.8929368214291</v>
       </c>
       <c r="F142" t="n">
-        <v>14.0414942630965</v>
+        <v>14.48025869749</v>
       </c>
       <c r="G142" t="n">
-        <v>16.1088079053583</v>
+        <v>13.9859430833711</v>
       </c>
       <c r="H142" t="n">
-        <v>16.7466388479893</v>
+        <v>15.4307304378876</v>
       </c>
       <c r="I142" t="n">
-        <v>18.0129811258559</v>
+        <v>16.7994825107607</v>
       </c>
       <c r="J142" t="n">
-        <v>19.7180816842921</v>
+        <v>18.6415233161207</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-5.46359329923468</v>
+        <v>10.1406426274004</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.33053942530383</v>
+        <v>11.2795926616995</v>
       </c>
       <c r="C143" t="n">
-        <v>-6.06663541008332</v>
+        <v>13.0463036881144</v>
       </c>
       <c r="D143" t="n">
-        <v>-5.96512220032919</v>
+        <v>12.3667580974724</v>
       </c>
       <c r="E143" t="n">
-        <v>-6.95636243224827</v>
+        <v>15.2345711080776</v>
       </c>
       <c r="F143" t="n">
-        <v>-7.3948341859254</v>
+        <v>15.8086464608427</v>
       </c>
       <c r="G143" t="n">
-        <v>-8.08044557149356</v>
+        <v>16.1525115276843</v>
       </c>
       <c r="H143" t="n">
-        <v>-8.45182676134554</v>
+        <v>16.5089523924082</v>
       </c>
       <c r="I143" t="n">
-        <v>-9.3061380932062</v>
+        <v>18.0098078849784</v>
       </c>
       <c r="J143" t="n">
-        <v>-9.22130543539416</v>
+        <v>-9.38857823687706</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-4.86038825729289</v>
+        <v>10.221920694615</v>
       </c>
       <c r="B144" t="n">
-        <v>-5.1581614970226</v>
+        <v>11.0954047179859</v>
       </c>
       <c r="C144" t="n">
-        <v>-6.58166166970858</v>
+        <v>12.2337075335001</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.62853095003739</v>
+        <v>13.5822826175684</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.004997829157</v>
+        <v>14.8832467834047</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.51211845989978</v>
+        <v>15.6232739111211</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.78097311355935</v>
+        <v>15.0611681561048</v>
       </c>
       <c r="H144" t="n">
-        <v>-8.84470996278546</v>
+        <v>16.8751756909371</v>
       </c>
       <c r="I144" t="n">
-        <v>-8.92340524135077</v>
+        <v>16.7418729659299</v>
       </c>
       <c r="J144" t="n">
-        <v>-9.33485870939477</v>
+        <v>19.6272863877467</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.57659866390011</v>
+        <v>9.54802343012878</v>
       </c>
       <c r="B145" t="n">
-        <v>11.658172980289</v>
+        <v>-5.8352023179692</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.58244252219581</v>
+        <v>-6.15509151633577</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.45190758687548</v>
+        <v>-6.71820877442627</v>
       </c>
       <c r="E145" t="n">
-        <v>-7.65218332671282</v>
+        <v>-6.95089434318509</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.50825506276226</v>
+        <v>-7.16048675936216</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.02021706272854</v>
+        <v>-8.00610321558632</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.5856414374883</v>
+        <v>-7.90141593033542</v>
       </c>
       <c r="I145" t="n">
-        <v>-8.8226944865649</v>
+        <v>-8.62797966097009</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.61698450590563</v>
+        <v>-9.399713251668</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.94502590281824</v>
+        <v>10.3199652048154</v>
       </c>
       <c r="B146" t="n">
-        <v>10.9426476117985</v>
+        <v>10.1862612966646</v>
       </c>
       <c r="C146" t="n">
-        <v>12.1904729491693</v>
+        <v>11.143949733145</v>
       </c>
       <c r="D146" t="n">
-        <v>12.1091837443177</v>
+        <v>13.3942462011228</v>
       </c>
       <c r="E146" t="n">
-        <v>15.2074272164487</v>
+        <v>15.1652957820866</v>
       </c>
       <c r="F146" t="n">
-        <v>16.9447673503245</v>
+        <v>15.1605511820366</v>
       </c>
       <c r="G146" t="n">
-        <v>16.3537718772468</v>
+        <v>17.1820038292224</v>
       </c>
       <c r="H146" t="n">
-        <v>17.1868143193641</v>
+        <v>-8.37966207505214</v>
       </c>
       <c r="I146" t="n">
-        <v>18.7668426170631</v>
+        <v>-8.99135928341241</v>
       </c>
       <c r="J146" t="n">
-        <v>18.5564008914704</v>
+        <v>-9.73014014495489</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.1530710520307</v>
+        <v>9.62102177737784</v>
       </c>
       <c r="B147" t="n">
-        <v>11.7191367896169</v>
+        <v>11.639401357938</v>
       </c>
       <c r="C147" t="n">
-        <v>11.6305871748368</v>
+        <v>-5.83138746394422</v>
       </c>
       <c r="D147" t="n">
-        <v>13.2084517489695</v>
+        <v>-6.43366680915328</v>
       </c>
       <c r="E147" t="n">
-        <v>14.1832111711611</v>
+        <v>-6.80868150891097</v>
       </c>
       <c r="F147" t="n">
-        <v>14.5699001415613</v>
+        <v>-7.72749936170338</v>
       </c>
       <c r="G147" t="n">
-        <v>15.1934837150973</v>
+        <v>16.930057918245</v>
       </c>
       <c r="H147" t="n">
-        <v>18.0913289518141</v>
+        <v>16.5570431338483</v>
       </c>
       <c r="I147" t="n">
-        <v>18.8733311864987</v>
+        <v>18.6646851849154</v>
       </c>
       <c r="J147" t="n">
-        <v>18.5688492276151</v>
+        <v>19.0415269512631</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.74333865916038</v>
+        <v>9.7135017921865</v>
       </c>
       <c r="B148" t="n">
-        <v>11.1275797627594</v>
+        <v>10.3985449226904</v>
       </c>
       <c r="C148" t="n">
-        <v>11.9843488731449</v>
+        <v>11.817569264068</v>
       </c>
       <c r="D148" t="n">
-        <v>13.2552858942951</v>
+        <v>13.1985372656488</v>
       </c>
       <c r="E148" t="n">
-        <v>14.2372115024621</v>
+        <v>13.3081483883792</v>
       </c>
       <c r="F148" t="n">
-        <v>15.0159732453295</v>
+        <v>15.0886160139426</v>
       </c>
       <c r="G148" t="n">
-        <v>16.2026279622346</v>
+        <v>15.9260146658595</v>
       </c>
       <c r="H148" t="n">
-        <v>-8.35547606199326</v>
+        <v>17.7314067130732</v>
       </c>
       <c r="I148" t="n">
-        <v>-8.85195463568041</v>
+        <v>17.3469646362113</v>
       </c>
       <c r="J148" t="n">
-        <v>-9.47711978063073</v>
+        <v>18.7077242320191</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.2915716743176</v>
+        <v>10.9393939789994</v>
       </c>
       <c r="B149" t="n">
-        <v>11.5671545591372</v>
+        <v>10.1204874354773</v>
       </c>
       <c r="C149" t="n">
-        <v>11.9281411032098</v>
+        <v>12.4368510260471</v>
       </c>
       <c r="D149" t="n">
-        <v>13.0609984821945</v>
+        <v>12.2148358949749</v>
       </c>
       <c r="E149" t="n">
-        <v>15.4613376035889</v>
+        <v>13.4815401676122</v>
       </c>
       <c r="F149" t="n">
-        <v>15.3360783157963</v>
+        <v>14.5503770306147</v>
       </c>
       <c r="G149" t="n">
-        <v>17.0340114791546</v>
+        <v>15.5204874711537</v>
       </c>
       <c r="H149" t="n">
-        <v>14.9622545161308</v>
+        <v>15.377331531222</v>
       </c>
       <c r="I149" t="n">
-        <v>18.2495539034991</v>
+        <v>19.1855147173245</v>
       </c>
       <c r="J149" t="n">
-        <v>17.9342975705605</v>
+        <v>-8.88925506306044</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-5.02827952682008</v>
+        <v>9.93541922728578</v>
       </c>
       <c r="B150" t="n">
-        <v>-5.26587065191855</v>
+        <v>12.3049723419949</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.95361912228199</v>
+        <v>11.6738519977803</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.16195100747814</v>
+        <v>-6.43523829264482</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.42401868142149</v>
+        <v>-7.16925831396131</v>
       </c>
       <c r="F150" t="n">
-        <v>-7.42182723439264</v>
+        <v>-7.95483368055688</v>
       </c>
       <c r="G150" t="n">
-        <v>-7.60013822238445</v>
+        <v>-7.97797521362739</v>
       </c>
       <c r="H150" t="n">
-        <v>-8.84650244844176</v>
+        <v>-8.65827525990136</v>
       </c>
       <c r="I150" t="n">
-        <v>-8.75982753052621</v>
+        <v>-9.11335284281831</v>
       </c>
       <c r="J150" t="n">
-        <v>-9.49242407136345</v>
+        <v>-9.27283369464161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.84835230924265</v>
+        <v>9.28700306357377</v>
       </c>
       <c r="B151" t="n">
-        <v>11.2344611084328</v>
+        <v>9.34921207560512</v>
       </c>
       <c r="C151" t="n">
-        <v>12.1128357342591</v>
+        <v>11.2543284383933</v>
       </c>
       <c r="D151" t="n">
-        <v>13.4004689540826</v>
+        <v>11.7574511920532</v>
       </c>
       <c r="E151" t="n">
-        <v>11.6279140140728</v>
+        <v>14.3233668468772</v>
       </c>
       <c r="F151" t="n">
-        <v>15.4191084655061</v>
+        <v>14.2123159527272</v>
       </c>
       <c r="G151" t="n">
-        <v>15.2554721687428</v>
+        <v>14.5890951048566</v>
       </c>
       <c r="H151" t="n">
-        <v>18.2128829100461</v>
+        <v>16.7058391299009</v>
       </c>
       <c r="I151" t="n">
-        <v>16.9981186717922</v>
+        <v>18.3768598538278</v>
       </c>
       <c r="J151" t="n">
-        <v>19.0252571266839</v>
+        <v>18.5562627452103</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.8797289369964</v>
+        <v>-4.53082386191976</v>
       </c>
       <c r="B152" t="n">
-        <v>10.8274026254865</v>
+        <v>-5.3139163096646</v>
       </c>
       <c r="C152" t="n">
-        <v>12.0281805059777</v>
+        <v>-5.85930203808846</v>
       </c>
       <c r="D152" t="n">
-        <v>13.2375068022069</v>
+        <v>-6.16735003210955</v>
       </c>
       <c r="E152" t="n">
-        <v>14.1640840916387</v>
+        <v>-6.85883020948245</v>
       </c>
       <c r="F152" t="n">
-        <v>15.7132687860809</v>
+        <v>-6.9245542154499</v>
       </c>
       <c r="G152" t="n">
-        <v>15.7746273411148</v>
+        <v>-7.79828006506398</v>
       </c>
       <c r="H152" t="n">
-        <v>15.5653767609031</v>
+        <v>-8.57138227556761</v>
       </c>
       <c r="I152" t="n">
-        <v>16.8755003721162</v>
+        <v>-9.0096415901299</v>
       </c>
       <c r="J152" t="n">
-        <v>17.8502861679194</v>
+        <v>-9.5420747762822</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-4.60529417806333</v>
+        <v>10.2557332813215</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.73269811601999</v>
+        <v>9.93005741200117</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.97224968289345</v>
+        <v>12.6093517156476</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.26610586640134</v>
+        <v>12.7871559167259</v>
       </c>
       <c r="E153" t="n">
-        <v>-6.81456616006939</v>
+        <v>14.3359529341811</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.67640298828883</v>
+        <v>15.7700462146018</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.99105372278499</v>
+        <v>15.9595051354088</v>
       </c>
       <c r="H153" t="n">
-        <v>-8.63753150482236</v>
+        <v>17.0394265338127</v>
       </c>
       <c r="I153" t="n">
-        <v>-9.22386605439694</v>
+        <v>17.9238277386219</v>
       </c>
       <c r="J153" t="n">
-        <v>-9.27140270041314</v>
+        <v>19.2772427864135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.1840387763593</v>
+        <v>8.42112953596492</v>
       </c>
       <c r="B154" t="n">
-        <v>10.8463987886044</v>
+        <v>10.146764767368</v>
       </c>
       <c r="C154" t="n">
-        <v>12.2702754135254</v>
+        <v>11.9271463166147</v>
       </c>
       <c r="D154" t="n">
-        <v>12.6380047170528</v>
+        <v>11.4174718736601</v>
       </c>
       <c r="E154" t="n">
-        <v>13.5062066006478</v>
+        <v>-6.72042508976168</v>
       </c>
       <c r="F154" t="n">
-        <v>-7.47405246893011</v>
+        <v>-7.83152225184772</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.93109969678926</v>
+        <v>-8.07045593042444</v>
       </c>
       <c r="H154" t="n">
-        <v>-8.65659434034929</v>
+        <v>-8.39382152146739</v>
       </c>
       <c r="I154" t="n">
-        <v>-9.21859798176187</v>
+        <v>-9.12444308260899</v>
       </c>
       <c r="J154" t="n">
-        <v>-9.36684619787114</v>
+        <v>-9.55312042654226</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-4.98311048390774</v>
+        <v>10.0729610891961</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.83662595140487</v>
+        <v>11.3518305057184</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.96675618308284</v>
+        <v>12.0556917804572</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.97003068492906</v>
+        <v>12.9353298827227</v>
       </c>
       <c r="E155" t="n">
-        <v>-7.10409234093137</v>
+        <v>14.1476490119696</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.77843746669519</v>
+        <v>14.8276041648189</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.88869674210393</v>
+        <v>15.8308006781337</v>
       </c>
       <c r="H155" t="n">
-        <v>-8.49548075397532</v>
+        <v>-8.28329435068167</v>
       </c>
       <c r="I155" t="n">
-        <v>18.8583200556761</v>
+        <v>-9.12527657530391</v>
       </c>
       <c r="J155" t="n">
-        <v>-9.18864995247037</v>
+        <v>-9.58332609950985</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.04376869430991</v>
+        <v>10.1746035491949</v>
       </c>
       <c r="B156" t="n">
-        <v>11.6288136032747</v>
+        <v>11.5804086668258</v>
       </c>
       <c r="C156" t="n">
-        <v>10.2862477966125</v>
+        <v>13.3593193794322</v>
       </c>
       <c r="D156" t="n">
-        <v>12.8984149203885</v>
+        <v>-6.66964032763266</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.09919924779196</v>
+        <v>-6.9439200680574</v>
       </c>
       <c r="F156" t="n">
-        <v>-7.52694550543826</v>
+        <v>-7.89072402934986</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.85162994010043</v>
+        <v>-8.10398269112934</v>
       </c>
       <c r="H156" t="n">
-        <v>-8.06296980639888</v>
+        <v>-8.59210446269057</v>
       </c>
       <c r="I156" t="n">
-        <v>-9.23618486371332</v>
+        <v>-9.32991496963806</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.55068430936164</v>
+        <v>-9.67681223948102</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.37818664010883</v>
+        <v>9.38205488755709</v>
       </c>
       <c r="B157" t="n">
-        <v>10.63805122252</v>
+        <v>10.6636621993369</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.85305367261575</v>
+        <v>12.2320401161972</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.97439292280212</v>
+        <v>14.153100572154</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.18621201193198</v>
+        <v>14.870358344369</v>
       </c>
       <c r="F157" t="n">
-        <v>-7.50313815277365</v>
+        <v>15.4212530058596</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.95864458896431</v>
+        <v>17.1297051532643</v>
       </c>
       <c r="H157" t="n">
-        <v>-8.38786461150888</v>
+        <v>17.6147053554552</v>
       </c>
       <c r="I157" t="n">
-        <v>-8.49842620926179</v>
+        <v>17.0372022604737</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.91516580540589</v>
+        <v>-9.27380064071877</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.1008202456842</v>
+        <v>-5.20432794568439</v>
       </c>
       <c r="B158" t="n">
-        <v>9.63096682367805</v>
+        <v>-5.26367831076008</v>
       </c>
       <c r="C158" t="n">
-        <v>11.7995873048437</v>
+        <v>-6.15654777091918</v>
       </c>
       <c r="D158" t="n">
-        <v>13.3318579785732</v>
+        <v>-6.65392625444628</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.87362296692684</v>
+        <v>-7.07316698830413</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.57937900999564</v>
+        <v>-7.23841872262655</v>
       </c>
       <c r="G158" t="n">
-        <v>-8.00152871103227</v>
+        <v>-8.14922283848743</v>
       </c>
       <c r="H158" t="n">
-        <v>-8.45464928217399</v>
+        <v>-8.76952102421999</v>
       </c>
       <c r="I158" t="n">
-        <v>-9.15874420199829</v>
+        <v>-8.88690746612702</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.6125942636211</v>
+        <v>-9.25181299073466</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.8503004424115</v>
+        <v>9.56508586162276</v>
       </c>
       <c r="B159" t="n">
-        <v>10.779624848284</v>
+        <v>10.4970659942629</v>
       </c>
       <c r="C159" t="n">
-        <v>11.9893066818542</v>
+        <v>11.5021598600386</v>
       </c>
       <c r="D159" t="n">
-        <v>12.1109345793428</v>
+        <v>12.9556562976837</v>
       </c>
       <c r="E159" t="n">
-        <v>14.8942436547354</v>
+        <v>12.8425293405066</v>
       </c>
       <c r="F159" t="n">
-        <v>15.5741930223903</v>
+        <v>14.5087923619417</v>
       </c>
       <c r="G159" t="n">
-        <v>15.6639312878723</v>
+        <v>16.8723982486583</v>
       </c>
       <c r="H159" t="n">
-        <v>17.9946964132116</v>
+        <v>17.8814327527062</v>
       </c>
       <c r="I159" t="n">
-        <v>16.5865228397876</v>
+        <v>16.4839601946306</v>
       </c>
       <c r="J159" t="n">
-        <v>18.1210384685931</v>
+        <v>18.7763828101545</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-4.94939092482379</v>
+        <v>10.8717198531453</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.14175052499134</v>
+        <v>11.3097709898852</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.13185317304332</v>
+        <v>11.8682594526777</v>
       </c>
       <c r="D160" t="n">
-        <v>-6.23899758512139</v>
+        <v>12.0321478269962</v>
       </c>
       <c r="E160" t="n">
-        <v>-7.25549841868157</v>
+        <v>15.3092576708008</v>
       </c>
       <c r="F160" t="n">
-        <v>13.7131700092011</v>
+        <v>13.5940521236184</v>
       </c>
       <c r="G160" t="n">
-        <v>16.1031728169599</v>
+        <v>16.0383183548151</v>
       </c>
       <c r="H160" t="n">
-        <v>17.1521459262753</v>
+        <v>16.9512079465882</v>
       </c>
       <c r="I160" t="n">
-        <v>17.437971505827</v>
+        <v>17.8569597382576</v>
       </c>
       <c r="J160" t="n">
-        <v>19.1975806052725</v>
+        <v>20.1833245489214</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.0972044489309</v>
+        <v>9.37966377608752</v>
       </c>
       <c r="B161" t="n">
-        <v>11.4924404479031</v>
+        <v>10.7778134302595</v>
       </c>
       <c r="C161" t="n">
-        <v>11.692775292999</v>
+        <v>11.0345211453438</v>
       </c>
       <c r="D161" t="n">
-        <v>14.4512278184238</v>
+        <v>12.5130493164447</v>
       </c>
       <c r="E161" t="n">
-        <v>13.2069641917845</v>
+        <v>14.3944668701722</v>
       </c>
       <c r="F161" t="n">
-        <v>14.9087769669716</v>
+        <v>15.6218526954398</v>
       </c>
       <c r="G161" t="n">
-        <v>15.1119706353302</v>
+        <v>14.7641314850943</v>
       </c>
       <c r="H161" t="n">
-        <v>17.4092779321157</v>
+        <v>17.2880709253472</v>
       </c>
       <c r="I161" t="n">
-        <v>18.8668890326121</v>
+        <v>17.9323919151692</v>
       </c>
       <c r="J161" t="n">
-        <v>18.8270157744912</v>
+        <v>18.6659209287717</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.14410673305257</v>
+        <v>11.6570824494179</v>
       </c>
       <c r="B162" t="n">
-        <v>11.0034427942645</v>
+        <v>10.7769778745541</v>
       </c>
       <c r="C162" t="n">
-        <v>12.5764870040782</v>
+        <v>13.1854346103406</v>
       </c>
       <c r="D162" t="n">
-        <v>13.2383157775454</v>
+        <v>12.9947224672316</v>
       </c>
       <c r="E162" t="n">
-        <v>14.5303954324283</v>
+        <v>14.0631244757496</v>
       </c>
       <c r="F162" t="n">
-        <v>14.2349669688421</v>
+        <v>14.3289875790714</v>
       </c>
       <c r="G162" t="n">
-        <v>16.6393967429594</v>
+        <v>15.5870172635176</v>
       </c>
       <c r="H162" t="n">
-        <v>18.5199825705473</v>
+        <v>18.4344176636696</v>
       </c>
       <c r="I162" t="n">
-        <v>18.4776993553093</v>
+        <v>18.5805510098874</v>
       </c>
       <c r="J162" t="n">
-        <v>18.970521733766</v>
+        <v>17.5025730393332</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.4212024593779</v>
+        <v>8.47999126435297</v>
       </c>
       <c r="B163" t="n">
-        <v>11.3591756381284</v>
+        <v>10.2254371249629</v>
       </c>
       <c r="C163" t="n">
-        <v>11.6341796687399</v>
+        <v>12.1326577707404</v>
       </c>
       <c r="D163" t="n">
-        <v>12.9122543971517</v>
+        <v>12.144393748415</v>
       </c>
       <c r="E163" t="n">
-        <v>15.4930829341823</v>
+        <v>15.0350588001217</v>
       </c>
       <c r="F163" t="n">
-        <v>14.8225587828374</v>
+        <v>15.5189661996498</v>
       </c>
       <c r="G163" t="n">
-        <v>15.7796613680217</v>
+        <v>15.4264977530684</v>
       </c>
       <c r="H163" t="n">
-        <v>18.0430558383826</v>
+        <v>17.3591189683087</v>
       </c>
       <c r="I163" t="n">
-        <v>17.7903958325289</v>
+        <v>17.5622049593628</v>
       </c>
       <c r="J163" t="n">
-        <v>20.2025466550094</v>
+        <v>18.0268009428346</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-5.32847518352781</v>
+        <v>9.14680808857141</v>
       </c>
       <c r="B164" t="n">
-        <v>-5.75081241135399</v>
+        <v>10.4949803992042</v>
       </c>
       <c r="C164" t="n">
-        <v>-6.40135772243775</v>
+        <v>12.4353635830206</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.54047259075971</v>
+        <v>12.3496332006994</v>
       </c>
       <c r="E164" t="n">
-        <v>-6.9937284598719</v>
+        <v>-7.26912991433849</v>
       </c>
       <c r="F164" t="n">
-        <v>-7.41961350923513</v>
+        <v>-7.80028982105043</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.67053310020477</v>
+        <v>-8.00434988610931</v>
       </c>
       <c r="H164" t="n">
-        <v>-8.57931507316566</v>
+        <v>-8.93077019763273</v>
       </c>
       <c r="I164" t="n">
-        <v>-8.84660343474341</v>
+        <v>-9.07395588146138</v>
       </c>
       <c r="J164" t="n">
-        <v>-9.4510523503196</v>
+        <v>-8.99720485090368</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9.45670126275023</v>
+        <v>10.8996497672198</v>
       </c>
       <c r="B165" t="n">
-        <v>10.831009023552</v>
+        <v>11.6613344683646</v>
       </c>
       <c r="C165" t="n">
-        <v>12.1742683310601</v>
+        <v>12.3044215892829</v>
       </c>
       <c r="D165" t="n">
-        <v>12.4482688181071</v>
+        <v>-6.73437057020448</v>
       </c>
       <c r="E165" t="n">
-        <v>14.4575698980966</v>
+        <v>-6.81252637859838</v>
       </c>
       <c r="F165" t="n">
-        <v>13.9426409848212</v>
+        <v>-7.41779034917256</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.98272062302217</v>
+        <v>-7.44864733958523</v>
       </c>
       <c r="H165" t="n">
-        <v>-8.46227743875165</v>
+        <v>-8.62416781380906</v>
       </c>
       <c r="I165" t="n">
-        <v>-9.13284858264969</v>
+        <v>-8.99581583221788</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.3562625921056</v>
+        <v>-9.67573264808983</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-4.934760664247</v>
+        <v>10.7788128825121</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.98030731335473</v>
+        <v>10.9010036114066</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.88277781968996</v>
+        <v>10.6332218035407</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.63712388859754</v>
+        <v>12.5168952846882</v>
       </c>
       <c r="E166" t="n">
-        <v>-7.01807361103282</v>
+        <v>13.3239466237212</v>
       </c>
       <c r="F166" t="n">
-        <v>-7.24789967460309</v>
+        <v>15.1367203990653</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.57672560490628</v>
+        <v>16.7390783729473</v>
       </c>
       <c r="H166" t="n">
-        <v>-8.34099230844471</v>
+        <v>18.3158834894624</v>
       </c>
       <c r="I166" t="n">
-        <v>-9.12944897396611</v>
+        <v>18.2755955574189</v>
       </c>
       <c r="J166" t="n">
-        <v>-9.48801178616903</v>
+        <v>19.460963846115</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.9716371482034</v>
+        <v>9.8931329926696</v>
       </c>
       <c r="B167" t="n">
-        <v>11.5175660798968</v>
+        <v>10.6182479130426</v>
       </c>
       <c r="C167" t="n">
-        <v>11.6349046926816</v>
+        <v>13.3642426217287</v>
       </c>
       <c r="D167" t="n">
-        <v>13.2215446562333</v>
+        <v>13.2929935171816</v>
       </c>
       <c r="E167" t="n">
-        <v>13.8721947004242</v>
+        <v>15.1045886937517</v>
       </c>
       <c r="F167" t="n">
-        <v>14.6760528673184</v>
+        <v>14.3053142471555</v>
       </c>
       <c r="G167" t="n">
-        <v>15.7430857652292</v>
+        <v>16.7199981401957</v>
       </c>
       <c r="H167" t="n">
-        <v>17.1518868040208</v>
+        <v>19.1978219501541</v>
       </c>
       <c r="I167" t="n">
-        <v>18.1252036761002</v>
+        <v>17.2215504776833</v>
       </c>
       <c r="J167" t="n">
-        <v>18.616868935658</v>
+        <v>19.4543592612416</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.27914142552798</v>
+        <v>-5.02409234481568</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.34754648841152</v>
+        <v>-5.8448141087981</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.34571814965654</v>
+        <v>-5.85012885437525</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.43012609710836</v>
+        <v>-6.7814038563221</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.34193752241884</v>
+        <v>-7.10221672126929</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.29928346740258</v>
+        <v>-7.51239698440907</v>
       </c>
       <c r="G168" t="n">
-        <v>-8.06098189490803</v>
+        <v>-7.62984276505836</v>
       </c>
       <c r="H168" t="n">
-        <v>-8.39216839820644</v>
+        <v>-8.73880317644966</v>
       </c>
       <c r="I168" t="n">
-        <v>-9.32811974252239</v>
+        <v>-8.80092804292052</v>
       </c>
       <c r="J168" t="n">
-        <v>-9.62152467310655</v>
+        <v>-9.41286739658791</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-5.31184919483352</v>
+        <v>10.2473405849173</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.62846069777423</v>
+        <v>10.7807054520615</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.23231567736665</v>
+        <v>12.8083252007259</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.25129315197373</v>
+        <v>12.6543676517756</v>
       </c>
       <c r="E169" t="n">
-        <v>-6.76149097349192</v>
+        <v>13.6894224140531</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.35626394453675</v>
+        <v>13.8978585518999</v>
       </c>
       <c r="G169" t="n">
-        <v>-8.43703230722896</v>
+        <v>15.8229276591999</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.15534464560803</v>
+        <v>16.3816709759749</v>
       </c>
       <c r="I169" t="n">
-        <v>-8.92946341717766</v>
+        <v>17.5846279420592</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.33325680547865</v>
+        <v>-9.49871838398168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9.34237469876227</v>
+        <v>9.36821620157055</v>
       </c>
       <c r="B170" t="n">
-        <v>10.6701067918453</v>
+        <v>9.71250489825182</v>
       </c>
       <c r="C170" t="n">
-        <v>11.5387437535318</v>
+        <v>11.9880819812725</v>
       </c>
       <c r="D170" t="n">
-        <v>12.4337392782045</v>
+        <v>11.9974351053112</v>
       </c>
       <c r="E170" t="n">
-        <v>14.0203349461604</v>
+        <v>-6.91768159946555</v>
       </c>
       <c r="F170" t="n">
-        <v>14.6514165257419</v>
+        <v>-7.46659762250152</v>
       </c>
       <c r="G170" t="n">
-        <v>16.3510567494225</v>
+        <v>-8.07335524864776</v>
       </c>
       <c r="H170" t="n">
-        <v>17.4964066310643</v>
+        <v>-8.55184281166341</v>
       </c>
       <c r="I170" t="n">
-        <v>18.5019002298039</v>
+        <v>-8.75402026669721</v>
       </c>
       <c r="J170" t="n">
-        <v>19.6725483733768</v>
+        <v>-9.50928687961487</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.5650972439737</v>
+        <v>10.152452155408</v>
       </c>
       <c r="B171" t="n">
-        <v>9.69233189297369</v>
+        <v>12.5628088598472</v>
       </c>
       <c r="C171" t="n">
-        <v>11.6501234291299</v>
+        <v>11.7652133862992</v>
       </c>
       <c r="D171" t="n">
-        <v>12.114643504313</v>
+        <v>11.908469327678</v>
       </c>
       <c r="E171" t="n">
-        <v>13.8229843358966</v>
+        <v>14.3958714274509</v>
       </c>
       <c r="F171" t="n">
-        <v>16.5045034110092</v>
+        <v>13.7997074747256</v>
       </c>
       <c r="G171" t="n">
-        <v>16.4186211224681</v>
+        <v>-7.85508184878007</v>
       </c>
       <c r="H171" t="n">
-        <v>16.1652220767118</v>
+        <v>-8.56690565486707</v>
       </c>
       <c r="I171" t="n">
-        <v>17.4215672806153</v>
+        <v>-9.05343606477152</v>
       </c>
       <c r="J171" t="n">
-        <v>18.9393326305063</v>
+        <v>-9.35261632780711</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.16143540488754</v>
+        <v>9.43276133643093</v>
       </c>
       <c r="B172" t="n">
-        <v>11.556073807755</v>
+        <v>11.3890008964541</v>
       </c>
       <c r="C172" t="n">
-        <v>13.1138750393012</v>
+        <v>10.7425436467168</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.3334752170533</v>
+        <v>12.499010182873</v>
       </c>
       <c r="E172" t="n">
-        <v>-6.68094059800797</v>
+        <v>14.3017754188397</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.06663532911794</v>
+        <v>14.7494290725098</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.33471097336827</v>
+        <v>15.7956687025986</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.09145657940142</v>
+        <v>17.6992906345492</v>
       </c>
       <c r="I172" t="n">
-        <v>-8.8317853717875</v>
+        <v>19.1445020450923</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.79272650290795</v>
+        <v>18.9438100715763</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11.190680373249</v>
+        <v>9.86363516813216</v>
       </c>
       <c r="B173" t="n">
-        <v>10.4752578879202</v>
+        <v>10.8826676843599</v>
       </c>
       <c r="C173" t="n">
-        <v>11.6337063806243</v>
+        <v>11.9347877111028</v>
       </c>
       <c r="D173" t="n">
-        <v>12.338770643196</v>
+        <v>-6.67651829698466</v>
       </c>
       <c r="E173" t="n">
-        <v>14.0288577653899</v>
+        <v>-6.77600184373312</v>
       </c>
       <c r="F173" t="n">
-        <v>15.3568167683123</v>
+        <v>-7.45798544087739</v>
       </c>
       <c r="G173" t="n">
-        <v>16.4460711515929</v>
+        <v>-8.17598596909511</v>
       </c>
       <c r="H173" t="n">
-        <v>17.4322893210532</v>
+        <v>-8.47537838361375</v>
       </c>
       <c r="I173" t="n">
-        <v>19.2823650660142</v>
+        <v>-8.71480083105589</v>
       </c>
       <c r="J173" t="n">
-        <v>19.0085919743438</v>
+        <v>-9.42465469368222</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.1440592335513</v>
+        <v>10.1532634574334</v>
       </c>
       <c r="B174" t="n">
-        <v>11.5935029262697</v>
+        <v>12.1571113248483</v>
       </c>
       <c r="C174" t="n">
-        <v>-6.01942756365122</v>
+        <v>11.8301899767922</v>
       </c>
       <c r="D174" t="n">
-        <v>-7.01511477418594</v>
+        <v>12.9143945715378</v>
       </c>
       <c r="E174" t="n">
-        <v>-7.13424767455288</v>
+        <v>13.7743642473689</v>
       </c>
       <c r="F174" t="n">
-        <v>-7.36620707025412</v>
+        <v>16.2349661067682</v>
       </c>
       <c r="G174" t="n">
-        <v>-8.20556945205235</v>
+        <v>15.8850883492134</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.54046195378266</v>
+        <v>17.0405306898868</v>
       </c>
       <c r="I174" t="n">
-        <v>-8.88826496256414</v>
+        <v>17.7951408102373</v>
       </c>
       <c r="J174" t="n">
-        <v>-9.35690543587629</v>
+        <v>18.8547537666744</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.45986956829411</v>
+        <v>-5.12160042667345</v>
       </c>
       <c r="B175" t="n">
-        <v>10.904052382524</v>
+        <v>-5.15341072294156</v>
       </c>
       <c r="C175" t="n">
-        <v>11.8702249588873</v>
+        <v>-5.55358760965317</v>
       </c>
       <c r="D175" t="n">
-        <v>12.7610396558134</v>
+        <v>-6.74929465913465</v>
       </c>
       <c r="E175" t="n">
-        <v>12.7646865523494</v>
+        <v>-7.20572604541858</v>
       </c>
       <c r="F175" t="n">
-        <v>14.0661492972822</v>
+        <v>-7.25573237048749</v>
       </c>
       <c r="G175" t="n">
-        <v>16.0187201581897</v>
+        <v>-8.11359130761629</v>
       </c>
       <c r="H175" t="n">
-        <v>16.7827653565928</v>
+        <v>-8.20625235068465</v>
       </c>
       <c r="I175" t="n">
-        <v>17.537446618401</v>
+        <v>-8.90695345245626</v>
       </c>
       <c r="J175" t="n">
-        <v>18.9316420569638</v>
+        <v>-9.25047780562459</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.2342138678691</v>
+        <v>9.80170707739104</v>
       </c>
       <c r="B176" t="n">
-        <v>11.0598074400237</v>
+        <v>9.91443905081734</v>
       </c>
       <c r="C176" t="n">
-        <v>11.2758996185281</v>
+        <v>13.5709510760065</v>
       </c>
       <c r="D176" t="n">
-        <v>14.697018867437</v>
+        <v>13.0814744060873</v>
       </c>
       <c r="E176" t="n">
-        <v>15.2223903580952</v>
+        <v>14.732378717999</v>
       </c>
       <c r="F176" t="n">
-        <v>14.1028988529265</v>
+        <v>14.9919133307403</v>
       </c>
       <c r="G176" t="n">
-        <v>16.4937080800406</v>
+        <v>16.9788772573995</v>
       </c>
       <c r="H176" t="n">
-        <v>15.5367000225918</v>
+        <v>16.7672943985494</v>
       </c>
       <c r="I176" t="n">
-        <v>18.3875805503293</v>
+        <v>17.8244855619029</v>
       </c>
       <c r="J176" t="n">
-        <v>19.8368737270538</v>
+        <v>18.9214044718626</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.85879720426254</v>
+        <v>10.2558833542885</v>
       </c>
       <c r="B177" t="n">
-        <v>11.5026374611564</v>
+        <v>10.7586670820893</v>
       </c>
       <c r="C177" t="n">
-        <v>11.7679776406434</v>
+        <v>-5.87251842576176</v>
       </c>
       <c r="D177" t="n">
-        <v>15.3380475004435</v>
+        <v>-6.58862348336372</v>
       </c>
       <c r="E177" t="n">
-        <v>13.3105308117033</v>
+        <v>-7.09306574826287</v>
       </c>
       <c r="F177" t="n">
-        <v>16.1782714269845</v>
+        <v>-7.54687574396577</v>
       </c>
       <c r="G177" t="n">
-        <v>15.2902929458264</v>
+        <v>-7.8612642627475</v>
       </c>
       <c r="H177" t="n">
-        <v>17.755594545862</v>
+        <v>-8.12239350900355</v>
       </c>
       <c r="I177" t="n">
-        <v>19.3023012069083</v>
+        <v>-9.08431462977165</v>
       </c>
       <c r="J177" t="n">
-        <v>19.4885695708589</v>
+        <v>-10.0009033374992</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.5280349626017</v>
+        <v>10.4412845760179</v>
       </c>
       <c r="B178" t="n">
-        <v>10.9890316927653</v>
+        <v>13.097978941277</v>
       </c>
       <c r="C178" t="n">
-        <v>12.7680559725527</v>
+        <v>11.1389793727782</v>
       </c>
       <c r="D178" t="n">
-        <v>13.2563098243027</v>
+        <v>13.0349055342882</v>
       </c>
       <c r="E178" t="n">
-        <v>14.2021301972827</v>
+        <v>13.6306386037704</v>
       </c>
       <c r="F178" t="n">
-        <v>14.0339463222636</v>
+        <v>14.6083091442245</v>
       </c>
       <c r="G178" t="n">
-        <v>17.0294768884173</v>
+        <v>16.912736764299</v>
       </c>
       <c r="H178" t="n">
-        <v>17.5294588649588</v>
+        <v>16.8371531238819</v>
       </c>
       <c r="I178" t="n">
-        <v>17.3802382462657</v>
+        <v>17.483039577129</v>
       </c>
       <c r="J178" t="n">
-        <v>20.4396379538603</v>
+        <v>18.0806484361876</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9.28629424361392</v>
+        <v>11.5204515520725</v>
       </c>
       <c r="B179" t="n">
-        <v>11.9135403592173</v>
+        <v>10.0048507978725</v>
       </c>
       <c r="C179" t="n">
-        <v>11.8247213685594</v>
+        <v>12.4707214578079</v>
       </c>
       <c r="D179" t="n">
-        <v>13.2415628717598</v>
+        <v>13.5923952117486</v>
       </c>
       <c r="E179" t="n">
-        <v>14.2550480137818</v>
+        <v>13.8385710866431</v>
       </c>
       <c r="F179" t="n">
-        <v>14.7929127649211</v>
+        <v>14.8519257407275</v>
       </c>
       <c r="G179" t="n">
-        <v>16.3404015131894</v>
+        <v>17.2053686327738</v>
       </c>
       <c r="H179" t="n">
-        <v>16.6100033153548</v>
+        <v>17.5137940860628</v>
       </c>
       <c r="I179" t="n">
-        <v>18.3765413818675</v>
+        <v>17.1762130365084</v>
       </c>
       <c r="J179" t="n">
-        <v>19.6700782577638</v>
+        <v>18.504294346766</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.37054317671473</v>
+        <v>9.96895862275779</v>
       </c>
       <c r="B180" t="n">
-        <v>12.810431697012</v>
+        <v>12.0788443874271</v>
       </c>
       <c r="C180" t="n">
-        <v>13.5509025548553</v>
+        <v>12.1198916861426</v>
       </c>
       <c r="D180" t="n">
-        <v>11.8410681266709</v>
+        <v>12.2950854027206</v>
       </c>
       <c r="E180" t="n">
-        <v>14.4682742537974</v>
+        <v>14.8123210327967</v>
       </c>
       <c r="F180" t="n">
-        <v>14.6333513918749</v>
+        <v>16.3606212513407</v>
       </c>
       <c r="G180" t="n">
-        <v>16.9117066631909</v>
+        <v>15.4067389024964</v>
       </c>
       <c r="H180" t="n">
-        <v>16.9422057113496</v>
+        <v>16.0858258556951</v>
       </c>
       <c r="I180" t="n">
-        <v>18.7457761284483</v>
+        <v>17.8952257356836</v>
       </c>
       <c r="J180" t="n">
-        <v>20.5064944195643</v>
+        <v>17.8947366282705</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-4.82414737616639</v>
+        <v>-4.9467322318199</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.50368147610819</v>
+        <v>-5.71670582752116</v>
       </c>
       <c r="C181" t="n">
-        <v>-5.84738924510512</v>
+        <v>-6.25649128073443</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.56750009064441</v>
+        <v>-6.25047275111066</v>
       </c>
       <c r="E181" t="n">
-        <v>-7.62824380259004</v>
+        <v>-6.91393500549018</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.50613018231504</v>
+        <v>-7.71247212846195</v>
       </c>
       <c r="G181" t="n">
-        <v>-8.2165954436495</v>
+        <v>-8.03278757913589</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.66630710451544</v>
+        <v>-8.37703584175546</v>
       </c>
       <c r="I181" t="n">
-        <v>-8.61774063486246</v>
+        <v>-9.05377755205711</v>
       </c>
       <c r="J181" t="n">
-        <v>-9.48035891669128</v>
+        <v>-9.60049354226242</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-5.40779068580055</v>
+        <v>-4.69116411179192</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.97906248628919</v>
+        <v>-5.79749460942278</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.28588354216688</v>
+        <v>-5.73223524736431</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.59774911320862</v>
+        <v>-6.48164435736152</v>
       </c>
       <c r="E182" t="n">
-        <v>-7.10374361846647</v>
+        <v>-7.35727199007863</v>
       </c>
       <c r="F182" t="n">
-        <v>-7.78420763670752</v>
+        <v>-7.66932161777527</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.94360081269083</v>
+        <v>-8.2646879826366</v>
       </c>
       <c r="H182" t="n">
-        <v>-8.64509366032918</v>
+        <v>-8.82074949649743</v>
       </c>
       <c r="I182" t="n">
-        <v>-8.80725558417181</v>
+        <v>-8.45868725872755</v>
       </c>
       <c r="J182" t="n">
-        <v>-9.44926108048013</v>
+        <v>-9.79569628218212</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.23924037586137</v>
+        <v>10.9962590439975</v>
       </c>
       <c r="B183" t="n">
-        <v>11.7898925737844</v>
+        <v>10.3339208431389</v>
       </c>
       <c r="C183" t="n">
-        <v>10.6943024783973</v>
+        <v>12.416486294767</v>
       </c>
       <c r="D183" t="n">
-        <v>13.7829578843102</v>
+        <v>-6.20463694417635</v>
       </c>
       <c r="E183" t="n">
-        <v>12.9121796934819</v>
+        <v>-6.85273979542736</v>
       </c>
       <c r="F183" t="n">
-        <v>14.0107714921991</v>
+        <v>-8.05837057303552</v>
       </c>
       <c r="G183" t="n">
-        <v>-8.15948639457903</v>
+        <v>-8.57467080796081</v>
       </c>
       <c r="H183" t="n">
-        <v>-8.44487815352599</v>
+        <v>-8.23503499469013</v>
       </c>
       <c r="I183" t="n">
-        <v>-9.1055928347054</v>
+        <v>-8.92298912075066</v>
       </c>
       <c r="J183" t="n">
-        <v>-9.37337080360583</v>
+        <v>-9.62037756169618</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.64572358382472</v>
+        <v>9.99652734876105</v>
       </c>
       <c r="B184" t="n">
-        <v>11.3436486062748</v>
+        <v>10.9535308489486</v>
       </c>
       <c r="C184" t="n">
-        <v>11.6208867865558</v>
+        <v>12.4402100967772</v>
       </c>
       <c r="D184" t="n">
-        <v>13.1774077326805</v>
+        <v>12.5969431011992</v>
       </c>
       <c r="E184" t="n">
-        <v>14.4969412069171</v>
+        <v>13.6113424109808</v>
       </c>
       <c r="F184" t="n">
-        <v>15.2640899540721</v>
+        <v>16.2402653144779</v>
       </c>
       <c r="G184" t="n">
-        <v>15.3973180070599</v>
+        <v>15.9885122656399</v>
       </c>
       <c r="H184" t="n">
-        <v>18.3273805527561</v>
+        <v>17.1173531297447</v>
       </c>
       <c r="I184" t="n">
-        <v>17.5990182754357</v>
+        <v>16.8269750989794</v>
       </c>
       <c r="J184" t="n">
-        <v>19.1950297983701</v>
+        <v>19.1731795465731</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.6176708815014</v>
+        <v>-4.82168082082982</v>
       </c>
       <c r="B185" t="n">
-        <v>9.55356531254793</v>
+        <v>-5.45292797236868</v>
       </c>
       <c r="C185" t="n">
-        <v>13.1040743299425</v>
+        <v>-5.96768107739255</v>
       </c>
       <c r="D185" t="n">
-        <v>13.7142257262812</v>
+        <v>-6.96831390933728</v>
       </c>
       <c r="E185" t="n">
-        <v>12.5018762550079</v>
+        <v>-7.46604754454865</v>
       </c>
       <c r="F185" t="n">
-        <v>15.5934755070248</v>
+        <v>-7.76310946474044</v>
       </c>
       <c r="G185" t="n">
-        <v>14.9817754584079</v>
+        <v>-7.9357631855757</v>
       </c>
       <c r="H185" t="n">
-        <v>17.0393726559753</v>
+        <v>-8.17637178577563</v>
       </c>
       <c r="I185" t="n">
-        <v>17.4815158110318</v>
+        <v>-9.21585229486515</v>
       </c>
       <c r="J185" t="n">
-        <v>18.8045576627079</v>
+        <v>-9.55831260979227</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8.8936039591608</v>
+        <v>9.57185184283517</v>
       </c>
       <c r="B186" t="n">
-        <v>10.4346107782173</v>
+        <v>10.4497761174944</v>
       </c>
       <c r="C186" t="n">
-        <v>11.846320407951</v>
+        <v>13.0018916345025</v>
       </c>
       <c r="D186" t="n">
-        <v>14.1413483982129</v>
+        <v>11.4334008166195</v>
       </c>
       <c r="E186" t="n">
-        <v>13.5132307694345</v>
+        <v>13.5989974296029</v>
       </c>
       <c r="F186" t="n">
-        <v>15.9117031450363</v>
+        <v>14.0809801451936</v>
       </c>
       <c r="G186" t="n">
-        <v>14.9284619920696</v>
+        <v>15.4343555010076</v>
       </c>
       <c r="H186" t="n">
-        <v>17.1753519445138</v>
+        <v>17.8695302433176</v>
       </c>
       <c r="I186" t="n">
-        <v>18.6870237789809</v>
+        <v>17.9619545555479</v>
       </c>
       <c r="J186" t="n">
-        <v>19.1916571675694</v>
+        <v>19.066447626275</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9.16535824373846</v>
+        <v>-4.88312468522676</v>
       </c>
       <c r="B187" t="n">
-        <v>11.1642800287824</v>
+        <v>-5.18578730451021</v>
       </c>
       <c r="C187" t="n">
-        <v>12.7196312506388</v>
+        <v>-5.88889057223283</v>
       </c>
       <c r="D187" t="n">
-        <v>13.5493629579372</v>
+        <v>-6.43345509331941</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.96474658129626</v>
+        <v>-6.71372758768051</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.49570544443802</v>
+        <v>-7.5684696669817</v>
       </c>
       <c r="G187" t="n">
-        <v>-7.8928873187952</v>
+        <v>-7.65901312942081</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.66881641819588</v>
+        <v>-8.90732866422061</v>
       </c>
       <c r="I187" t="n">
-        <v>-8.72922867808052</v>
+        <v>-9.22644520417571</v>
       </c>
       <c r="J187" t="n">
-        <v>-10.0858520567039</v>
+        <v>-9.54563922403606</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9.84939315415222</v>
+        <v>-5.02552459646436</v>
       </c>
       <c r="B188" t="n">
-        <v>11.0235953494621</v>
+        <v>-5.98181645066184</v>
       </c>
       <c r="C188" t="n">
-        <v>13.1084249180806</v>
+        <v>-6.07385736598116</v>
       </c>
       <c r="D188" t="n">
-        <v>12.8922042820484</v>
+        <v>-6.58997885995231</v>
       </c>
       <c r="E188" t="n">
-        <v>-6.77011836195988</v>
+        <v>-6.63228869117673</v>
       </c>
       <c r="F188" t="n">
-        <v>-7.34574175093991</v>
+        <v>-7.56050895955463</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.63356999879252</v>
+        <v>-8.21360647121639</v>
       </c>
       <c r="H188" t="n">
-        <v>-8.39112636538424</v>
+        <v>-8.08043769721797</v>
       </c>
       <c r="I188" t="n">
-        <v>-8.86388247962802</v>
+        <v>-8.8455273558858</v>
       </c>
       <c r="J188" t="n">
-        <v>-9.68087941915163</v>
+        <v>-9.36313830721951</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8.70998919587826</v>
+        <v>10.9199103675689</v>
       </c>
       <c r="B189" t="n">
-        <v>12.6027665305528</v>
+        <v>-5.56208297196122</v>
       </c>
       <c r="C189" t="n">
-        <v>11.5292393355305</v>
+        <v>-6.23811710006087</v>
       </c>
       <c r="D189" t="n">
-        <v>13.3467384721882</v>
+        <v>-6.8195687076714</v>
       </c>
       <c r="E189" t="n">
-        <v>13.3649576365166</v>
+        <v>-7.35444480595466</v>
       </c>
       <c r="F189" t="n">
-        <v>14.6054368052756</v>
+        <v>-7.74598643944092</v>
       </c>
       <c r="G189" t="n">
-        <v>16.8900474790203</v>
+        <v>-7.88402746904139</v>
       </c>
       <c r="H189" t="n">
-        <v>17.324171071424</v>
+        <v>-8.36462750034505</v>
       </c>
       <c r="I189" t="n">
-        <v>18.0355572173605</v>
+        <v>-9.39604857820304</v>
       </c>
       <c r="J189" t="n">
-        <v>18.5730966413934</v>
+        <v>-9.91840285965031</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>10.2720390514839</v>
+        <v>9.47909272127668</v>
       </c>
       <c r="B190" t="n">
-        <v>10.7101671719961</v>
+        <v>11.4633394539388</v>
       </c>
       <c r="C190" t="n">
-        <v>11.4804329144988</v>
+        <v>13.1450165809848</v>
       </c>
       <c r="D190" t="n">
-        <v>12.4346508957112</v>
+        <v>12.738352108175</v>
       </c>
       <c r="E190" t="n">
-        <v>13.8837802234973</v>
+        <v>13.0849059923217</v>
       </c>
       <c r="F190" t="n">
-        <v>15.063603411886</v>
+        <v>15.4920685598998</v>
       </c>
       <c r="G190" t="n">
-        <v>16.3587996229149</v>
+        <v>16.5927733447737</v>
       </c>
       <c r="H190" t="n">
-        <v>15.6201846459402</v>
+        <v>17.2108196198303</v>
       </c>
       <c r="I190" t="n">
-        <v>18.2823298284651</v>
+        <v>18.9937976123586</v>
       </c>
       <c r="J190" t="n">
-        <v>17.7963809033434</v>
+        <v>18.613988406841</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-5.23284351691988</v>
+        <v>9.55455255339741</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.91254911442028</v>
+        <v>9.77945035830177</v>
       </c>
       <c r="C191" t="n">
-        <v>-5.44918850531237</v>
+        <v>11.5958784846027</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.67814324241132</v>
+        <v>11.7865279058595</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.67116379301759</v>
+        <v>14.8903490414525</v>
       </c>
       <c r="F191" t="n">
-        <v>-7.61732936588211</v>
+        <v>14.1063119511314</v>
       </c>
       <c r="G191" t="n">
-        <v>-8.14098270056671</v>
+        <v>15.9692589603235</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.16135696035417</v>
+        <v>-8.20505486893528</v>
       </c>
       <c r="I191" t="n">
-        <v>-9.05588316312941</v>
+        <v>-8.96050737846391</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.18549672838101</v>
+        <v>-9.91221232128354</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-4.76483891109247</v>
+        <v>9.24823494762018</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.36230323606202</v>
+        <v>11.3964212687082</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.01415216108013</v>
+        <v>-5.2274665541194</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.30053602565421</v>
+        <v>-6.57421741440731</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.80648532893158</v>
+        <v>-7.15595798562968</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.20428110703093</v>
+        <v>-8.07975897782113</v>
       </c>
       <c r="G192" t="n">
-        <v>-8.57804558098505</v>
+        <v>-8.08118154074931</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.72741674043671</v>
+        <v>-8.29981125080249</v>
       </c>
       <c r="I192" t="n">
-        <v>-8.76148669377998</v>
+        <v>-8.92417742106396</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.5273010218996</v>
+        <v>-9.80881063840751</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9.74356716874942</v>
+        <v>10.9353363775883</v>
       </c>
       <c r="B193" t="n">
-        <v>12.0272796249874</v>
+        <v>10.00086740652</v>
       </c>
       <c r="C193" t="n">
-        <v>10.9561921193644</v>
+        <v>12.8827631787258</v>
       </c>
       <c r="D193" t="n">
-        <v>12.6589913986026</v>
+        <v>11.9593617603789</v>
       </c>
       <c r="E193" t="n">
-        <v>14.3474477082277</v>
+        <v>13.9589908280778</v>
       </c>
       <c r="F193" t="n">
-        <v>14.7632625628817</v>
+        <v>14.9378723170123</v>
       </c>
       <c r="G193" t="n">
-        <v>15.4010257957474</v>
+        <v>15.12639086895</v>
       </c>
       <c r="H193" t="n">
-        <v>16.0388674180338</v>
+        <v>-8.86273230310732</v>
       </c>
       <c r="I193" t="n">
-        <v>19.2053385150496</v>
+        <v>-9.19104546846931</v>
       </c>
       <c r="J193" t="n">
-        <v>19.0047186372247</v>
+        <v>-9.2355585940287</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-5.01713215840742</v>
+        <v>10.3978247043298</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.41387510316772</v>
+        <v>10.2886680123424</v>
       </c>
       <c r="C194" t="n">
-        <v>-5.93219677786882</v>
+        <v>12.3344669104573</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.59037663686546</v>
+        <v>13.608304150308</v>
       </c>
       <c r="E194" t="n">
-        <v>-7.16581903798521</v>
+        <v>13.9373134522532</v>
       </c>
       <c r="F194" t="n">
-        <v>-7.70815774427947</v>
+        <v>14.5597349657113</v>
       </c>
       <c r="G194" t="n">
-        <v>-8.26673560531153</v>
+        <v>15.340598221016</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.58708938273243</v>
+        <v>16.7157742614277</v>
       </c>
       <c r="I194" t="n">
-        <v>-9.06414422312593</v>
+        <v>17.9527631703012</v>
       </c>
       <c r="J194" t="n">
-        <v>-9.54841228610722</v>
+        <v>19.5808832194886</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.1952747762845</v>
+        <v>10.3861367429375</v>
       </c>
       <c r="B195" t="n">
-        <v>11.1882212294705</v>
+        <v>12.4078892493255</v>
       </c>
       <c r="C195" t="n">
-        <v>-5.96218528188327</v>
+        <v>12.240365232047</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.39446432749716</v>
+        <v>13.4913223148155</v>
       </c>
       <c r="E195" t="n">
-        <v>-6.86042432495764</v>
+        <v>13.9693309633899</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.55064932841872</v>
+        <v>15.3772192540515</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.9396184168069</v>
+        <v>16.1629362357079</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.10596693190126</v>
+        <v>17.0099043485157</v>
       </c>
       <c r="I195" t="n">
-        <v>-8.87405492096205</v>
+        <v>18.8032104350734</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.57635657657329</v>
+        <v>19.1532936848207</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.2072525053442</v>
+        <v>9.55016466154871</v>
       </c>
       <c r="B196" t="n">
-        <v>10.5737444032596</v>
+        <v>10.5396252823272</v>
       </c>
       <c r="C196" t="n">
-        <v>12.3170934089228</v>
+        <v>12.5248746445922</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.61225858042852</v>
+        <v>14.0557563858144</v>
       </c>
       <c r="E196" t="n">
-        <v>-7.19450198375107</v>
+        <v>14.1146393168022</v>
       </c>
       <c r="F196" t="n">
-        <v>-7.52821117834161</v>
+        <v>12.8144247818898</v>
       </c>
       <c r="G196" t="n">
-        <v>-8.17426952253442</v>
+        <v>15.7338695382799</v>
       </c>
       <c r="H196" t="n">
-        <v>-8.30879314055344</v>
+        <v>16.4018034824545</v>
       </c>
       <c r="I196" t="n">
-        <v>-9.11540158219585</v>
+        <v>17.1228993846364</v>
       </c>
       <c r="J196" t="n">
-        <v>-9.71424057774896</v>
+        <v>19.7110593965254</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.0567557160715</v>
+        <v>10.8499699314801</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.219882689373</v>
+        <v>10.7326232361063</v>
       </c>
       <c r="C197" t="n">
-        <v>-5.84255932331066</v>
+        <v>-5.85381808718065</v>
       </c>
       <c r="D197" t="n">
-        <v>-6.65538356607662</v>
+        <v>-6.89892381560677</v>
       </c>
       <c r="E197" t="n">
-        <v>-6.90483175280187</v>
+        <v>-7.3663025123707</v>
       </c>
       <c r="F197" t="n">
-        <v>-7.46015129793572</v>
+        <v>-7.70678738877328</v>
       </c>
       <c r="G197" t="n">
-        <v>15.9578792633039</v>
+        <v>-8.18876671682989</v>
       </c>
       <c r="H197" t="n">
-        <v>17.0786615506238</v>
+        <v>-8.32358189793869</v>
       </c>
       <c r="I197" t="n">
-        <v>18.8474868504129</v>
+        <v>-9.26790846317653</v>
       </c>
       <c r="J197" t="n">
-        <v>18.4101395254127</v>
+        <v>-9.42950358191988</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.52359104318238</v>
+        <v>9.83758235120701</v>
       </c>
       <c r="B198" t="n">
-        <v>11.9759608764465</v>
+        <v>9.59097065034801</v>
       </c>
       <c r="C198" t="n">
-        <v>11.7398581358876</v>
+        <v>12.3058312546728</v>
       </c>
       <c r="D198" t="n">
-        <v>12.0876274520246</v>
+        <v>-6.34542852521121</v>
       </c>
       <c r="E198" t="n">
-        <v>13.992140376902</v>
+        <v>-7.03451161473427</v>
       </c>
       <c r="F198" t="n">
-        <v>14.5422468459635</v>
+        <v>-7.51517381950875</v>
       </c>
       <c r="G198" t="n">
-        <v>17.561878994933</v>
+        <v>-8.24568857430045</v>
       </c>
       <c r="H198" t="n">
-        <v>17.1974571314665</v>
+        <v>-8.47833231832343</v>
       </c>
       <c r="I198" t="n">
-        <v>17.407026283218</v>
+        <v>-9.26558768449646</v>
       </c>
       <c r="J198" t="n">
-        <v>18.031835576414</v>
+        <v>-9.33826276063769</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.5516639650856</v>
+        <v>10.5543339343507</v>
       </c>
       <c r="B199" t="n">
-        <v>10.4838850334947</v>
+        <v>10.9065712468243</v>
       </c>
       <c r="C199" t="n">
-        <v>11.4503569322744</v>
+        <v>12.8697630339108</v>
       </c>
       <c r="D199" t="n">
-        <v>12.158583110263</v>
+        <v>11.3301393687507</v>
       </c>
       <c r="E199" t="n">
-        <v>13.6174235197622</v>
+        <v>15.2014145198164</v>
       </c>
       <c r="F199" t="n">
-        <v>14.454462526625</v>
+        <v>15.8792824223003</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.05181870527228</v>
+        <v>15.928883089626</v>
       </c>
       <c r="H199" t="n">
-        <v>-8.59729285668632</v>
+        <v>16.511824600802</v>
       </c>
       <c r="I199" t="n">
-        <v>18.7930887091654</v>
+        <v>17.6841717174361</v>
       </c>
       <c r="J199" t="n">
-        <v>18.8114976968951</v>
+        <v>19.0448716804451</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.70779309924104</v>
+        <v>9.45359653709748</v>
       </c>
       <c r="B200" t="n">
-        <v>11.1583792836588</v>
+        <v>11.0706182303101</v>
       </c>
       <c r="C200" t="n">
-        <v>11.3116514530542</v>
+        <v>12.4895004936679</v>
       </c>
       <c r="D200" t="n">
-        <v>13.2785362354549</v>
+        <v>13.5824480508161</v>
       </c>
       <c r="E200" t="n">
-        <v>13.8144968888759</v>
+        <v>15.261120526646</v>
       </c>
       <c r="F200" t="n">
-        <v>15.1683658341852</v>
+        <v>15.8868109352508</v>
       </c>
       <c r="G200" t="n">
-        <v>15.6485069293257</v>
+        <v>17.2093901039956</v>
       </c>
       <c r="H200" t="n">
-        <v>17.1662012830937</v>
+        <v>16.9719022957052</v>
       </c>
       <c r="I200" t="n">
-        <v>18.542005813136</v>
+        <v>19.1700279156035</v>
       </c>
       <c r="J200" t="n">
-        <v>19.2634863813491</v>
+        <v>17.7138565178164</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.1554831340252</v>
+        <v>9.94366950781865</v>
       </c>
       <c r="B201" t="n">
-        <v>9.72195191318455</v>
+        <v>11.1275991070969</v>
       </c>
       <c r="C201" t="n">
-        <v>10.546942303748</v>
+        <v>12.7947539129569</v>
       </c>
       <c r="D201" t="n">
-        <v>12.8505037192602</v>
+        <v>13.0548184869248</v>
       </c>
       <c r="E201" t="n">
-        <v>13.5511933224831</v>
+        <v>14.3732870987484</v>
       </c>
       <c r="F201" t="n">
-        <v>14.5554739389341</v>
+        <v>13.6724890880533</v>
       </c>
       <c r="G201" t="n">
-        <v>16.2807445587048</v>
+        <v>15.8475154001815</v>
       </c>
       <c r="H201" t="n">
-        <v>16.1626384820391</v>
+        <v>17.7896535506824</v>
       </c>
       <c r="I201" t="n">
-        <v>18.1326074114402</v>
+        <v>-9.031242023684</v>
       </c>
       <c r="J201" t="n">
-        <v>19.0542653397006</v>
+        <v>-9.6257677342578</v>
       </c>
     </row>
   </sheetData>
